--- a/output_data/1_midi.xlsx
+++ b/output_data/1_midi.xlsx
@@ -35,7 +35,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>time_stamp</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>is_on</t>
+  </si>
+  <si>
+    <t>ipi</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>time_stamp</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>is_on</t>
+  </si>
+  <si>
+    <t>ipi</t>
+  </si>
   <si>
     <t>run_num</t>
   </si>
@@ -112,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -122,14 +158,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ADD103-4CA1-4EB3-927B-F102C787F907}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -455,27 +495,27 @@
     <col min="3" max="3" width="11.7109375" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="5.28515625" bestFit="true" customWidth="true"/>
     <col min="5" max="5" width="5.85546875" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="9.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
@@ -486,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>9.4927066999999994</v>
+        <v>5.9605983</v>
       </c>
       <c r="D2" s="0">
         <v>79</v>
@@ -506,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>9.6679559000000008</v>
+        <v>6.1503592999999999</v>
       </c>
       <c r="D3" s="0">
         <v>79</v>
@@ -526,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>9.9723620000000004</v>
+        <v>6.3933508000000003</v>
       </c>
       <c r="D4" s="0">
         <v>77</v>
@@ -535,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="0">
-        <v>0.30440609999999957</v>
+        <v>0.24299150000000047</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -546,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0">
-        <v>10.1786975</v>
+        <v>6.5556728</v>
       </c>
       <c r="D5" s="0">
         <v>77</v>
@@ -566,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>10.40371</v>
+        <v>6.7596654000000003</v>
       </c>
       <c r="D6" s="0">
         <v>76</v>
@@ -575,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="0">
-        <v>0.22501250000000006</v>
+        <v>0.2039926000000003</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -586,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="0">
-        <v>10.5946178</v>
+        <v>6.8743024000000004</v>
       </c>
       <c r="D7" s="0">
         <v>76</v>
@@ -606,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>10.869350600000001</v>
+        <v>7.1158207000000004</v>
       </c>
       <c r="D8" s="0">
         <v>74</v>
@@ -615,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="0">
-        <v>0.27473280000000067</v>
+        <v>0.24151830000000007</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
@@ -626,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="0">
-        <v>11.072308400000001</v>
+        <v>7.2578987000000001</v>
       </c>
       <c r="D9" s="0">
         <v>74</v>
@@ -646,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="0">
-        <v>11.376599199999999</v>
+        <v>7.5102915000000001</v>
       </c>
       <c r="D10" s="0">
         <v>72</v>
@@ -655,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="0">
-        <v>0.30429079999999864</v>
+        <v>0.25239279999999997</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -666,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0">
-        <v>11.6309644</v>
+        <v>7.6880747999999999</v>
       </c>
       <c r="D11" s="0">
         <v>72</v>
@@ -686,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="0">
-        <v>12.2671276</v>
+        <v>8.1614450999999999</v>
       </c>
       <c r="D12" s="0">
         <v>79</v>
@@ -695,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="0">
-        <v>0.63616320000000037</v>
+        <v>0.47337030000000002</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -706,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="0">
-        <v>12.4424884</v>
+        <v>8.3360269999999996</v>
       </c>
       <c r="D13" s="0">
         <v>79</v>
@@ -726,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="0">
-        <v>12.730892300000001</v>
+        <v>8.6461401999999996</v>
       </c>
       <c r="D14" s="0">
         <v>77</v>
@@ -735,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="0">
-        <v>0.28840390000000049</v>
+        <v>0.31011319999999998</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
@@ -746,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="0">
-        <v>12.9381617</v>
+        <v>8.7866505000000004</v>
       </c>
       <c r="D15" s="0">
         <v>77</v>
@@ -766,16 +806,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>9.0720082000000009</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E16" s="0">
         <v>1</v>
       </c>
       <c r="F16" s="0">
-        <v>-12.9381617</v>
+        <v>0.28535770000000049</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
@@ -786,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>9.1875152999999994</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -806,16 +846,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="0">
-        <v>0</v>
+        <v>9.4774162999999998</v>
       </c>
       <c r="D18" s="0">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E18" s="0">
         <v>1</v>
       </c>
       <c r="F18" s="0">
-        <v>0</v>
+        <v>0.28990100000000041</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -826,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>9.6036806000000006</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -846,16 +886,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="0">
-        <v>0</v>
+        <v>10.125648</v>
       </c>
       <c r="D20" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E20" s="0">
         <v>1</v>
       </c>
       <c r="F20" s="0">
-        <v>0</v>
+        <v>0.52196739999999942</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
@@ -866,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="0">
-        <v>0</v>
+        <v>10.3381793</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -886,10 +926,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="0">
-        <v>22.6635788</v>
+        <v>19.075984999999999</v>
       </c>
       <c r="D22" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E22" s="0">
         <v>1</v>
@@ -906,10 +946,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="0">
-        <v>22.919374000000001</v>
+        <v>19.2716928</v>
       </c>
       <c r="D23" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E23" s="0">
         <v>0</v>
@@ -926,16 +966,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="0">
-        <v>23.0922813</v>
+        <v>19.604393999999999</v>
       </c>
       <c r="D24" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" s="0">
         <v>1</v>
       </c>
       <c r="F24" s="0">
-        <v>0.17290729999999854</v>
+        <v>0.33270119999999892</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
@@ -946,10 +986,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="0">
-        <v>23.3466135</v>
+        <v>19.781574200000001</v>
       </c>
       <c r="D25" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E25" s="0">
         <v>0</v>
@@ -966,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="0">
-        <v>23.538139300000001</v>
+        <v>20.084016999999999</v>
       </c>
       <c r="D26" s="0">
         <v>76</v>
@@ -975,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="0">
-        <v>0.19152580000000086</v>
+        <v>0.3024427999999979</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
@@ -986,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="0">
-        <v>23.728474500000001</v>
+        <v>20.2238832</v>
       </c>
       <c r="D27" s="0">
         <v>76</v>
@@ -1006,16 +1046,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="0">
-        <v>23.982898800000001</v>
+        <v>20.482978599999999</v>
       </c>
       <c r="D28" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28" s="0">
         <v>1</v>
       </c>
       <c r="F28" s="0">
-        <v>0.25442430000000016</v>
+        <v>0.25909539999999964</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
@@ -1026,10 +1066,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="0">
-        <v>24.174920499999999</v>
+        <v>20.6556487</v>
       </c>
       <c r="D29" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -1046,16 +1086,16 @@
         <v>2</v>
       </c>
       <c r="C30" s="0">
-        <v>24.428543099999999</v>
+        <v>20.976483300000002</v>
       </c>
       <c r="D30" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E30" s="0">
         <v>1</v>
       </c>
       <c r="F30" s="0">
-        <v>0.25362259999999992</v>
+        <v>0.3208346000000013</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
@@ -1066,10 +1106,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="0">
-        <v>24.635086600000001</v>
+        <v>21.168267199999999</v>
       </c>
       <c r="D31" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -1086,16 +1126,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="0">
-        <v>25.294303299999999</v>
+        <v>21.919178800000001</v>
       </c>
       <c r="D32" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E32" s="0">
         <v>1</v>
       </c>
       <c r="F32" s="0">
-        <v>0.65921669999999821</v>
+        <v>0.75091160000000201</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
@@ -1106,10 +1146,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="0">
-        <v>25.3059352</v>
+        <v>22.110102300000001</v>
       </c>
       <c r="D33" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -1126,16 +1166,16 @@
         <v>2</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>22.450705899999999</v>
       </c>
       <c r="D34" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E34" s="0">
         <v>1</v>
       </c>
       <c r="F34" s="0">
-        <v>-25.3059352</v>
+        <v>0.3406035999999979</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
@@ -1146,10 +1186,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="0">
-        <v>25.496313499999999</v>
+        <v>22.608506899999998</v>
       </c>
       <c r="D35" s="0">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -1166,16 +1206,16 @@
         <v>2</v>
       </c>
       <c r="C36" s="0">
-        <v>25.784810100000001</v>
+        <v>22.914184800000001</v>
       </c>
       <c r="D36" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="0">
         <v>1</v>
       </c>
       <c r="F36" s="0">
-        <v>0.28849660000000199</v>
+        <v>0.30567790000000272</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
@@ -1186,10 +1226,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="0">
-        <v>0</v>
+        <v>23.034588500000002</v>
       </c>
       <c r="D37" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -1206,16 +1246,16 @@
         <v>2</v>
       </c>
       <c r="C38" s="0">
-        <v>0</v>
+        <v>23.358169</v>
       </c>
       <c r="D38" s="0">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E38" s="0">
         <v>1</v>
       </c>
       <c r="F38" s="0">
-        <v>0</v>
+        <v>0.32358049999999849</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
@@ -1226,10 +1266,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="0">
-        <v>0</v>
+        <v>23.501182100000001</v>
       </c>
       <c r="D39" s="0">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -1246,16 +1286,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>23.993668100000001</v>
       </c>
       <c r="D40" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E40" s="0">
         <v>1</v>
       </c>
       <c r="F40" s="0">
-        <v>0</v>
+        <v>0.49248599999999954</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
@@ -1266,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="0">
-        <v>0</v>
+        <v>24.139388700000001</v>
       </c>
       <c r="D41" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
@@ -1286,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="0">
-        <v>32.385635200000003</v>
+        <v>33.454108599999998</v>
       </c>
       <c r="D42" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E42" s="0">
         <v>1</v>
@@ -1306,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="0">
-        <v>32.622957399999997</v>
+        <v>33.645501099999997</v>
       </c>
       <c r="D43" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
@@ -1326,16 +1366,16 @@
         <v>3</v>
       </c>
       <c r="C44" s="0">
-        <v>32.847321200000003</v>
+        <v>34.012155399999997</v>
       </c>
       <c r="D44" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E44" s="0">
         <v>1</v>
       </c>
       <c r="F44" s="0">
-        <v>0.22436380000000611</v>
+        <v>0.36665430000000043</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
@@ -1346,10 +1386,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="0">
-        <v>33.052661999999998</v>
+        <v>34.164815300000001</v>
       </c>
       <c r="D45" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -1366,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="0">
-        <v>33.3095991</v>
+        <v>34.468815300000003</v>
       </c>
       <c r="D46" s="0">
         <v>76</v>
@@ -1375,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="0">
-        <v>0.25693710000000181</v>
+        <v>0.30400000000000205</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
@@ -1386,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="0">
-        <v>33.467446099999997</v>
+        <v>34.578315699999997</v>
       </c>
       <c r="D47" s="0">
         <v>76</v>
@@ -1406,16 +1446,16 @@
         <v>3</v>
       </c>
       <c r="C48" s="0">
-        <v>33.759075000000003</v>
+        <v>34.871299499999999</v>
       </c>
       <c r="D48" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E48" s="0">
         <v>1</v>
       </c>
       <c r="F48" s="0">
-        <v>0.2916289000000063</v>
+        <v>0.29298380000000179</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
@@ -1426,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="0">
-        <v>33.9453605</v>
+        <v>35.029655300000002</v>
       </c>
       <c r="D49" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -1446,16 +1486,16 @@
         <v>3</v>
       </c>
       <c r="C50" s="0">
-        <v>34.231504899999997</v>
+        <v>35.366292799999997</v>
       </c>
       <c r="D50" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E50" s="0">
         <v>1</v>
       </c>
       <c r="F50" s="0">
-        <v>0.28614439999999774</v>
+        <v>0.33663749999999482</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
@@ -1466,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="0">
-        <v>34.407267300000001</v>
+        <v>35.509019500000001</v>
       </c>
       <c r="D51" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -1486,16 +1526,16 @@
         <v>3</v>
       </c>
       <c r="C52" s="0">
-        <v>35.029247099999999</v>
+        <v>36.129361699999997</v>
       </c>
       <c r="D52" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E52" s="0">
         <v>1</v>
       </c>
       <c r="F52" s="0">
-        <v>0.62197979999999831</v>
+        <v>0.62034219999999607</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
@@ -1506,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="C53" s="0">
-        <v>35.284562200000003</v>
+        <v>36.3220685</v>
       </c>
       <c r="D53" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -1526,16 +1566,16 @@
         <v>3</v>
       </c>
       <c r="C54" s="0">
-        <v>35.508794899999998</v>
+        <v>36.659833499999998</v>
       </c>
       <c r="D54" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E54" s="0">
         <v>1</v>
       </c>
       <c r="F54" s="0">
-        <v>0.22423269999999462</v>
+        <v>0.33776499999999743</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
@@ -1546,10 +1586,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="0">
-        <v>35.716088499999998</v>
+        <v>36.813481799999998</v>
       </c>
       <c r="D55" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -1566,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="0">
-        <v>35.955934499999998</v>
+        <v>37.138859199999999</v>
       </c>
       <c r="D56" s="0">
         <v>76</v>
@@ -1575,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="0">
-        <v>0.239846</v>
+        <v>0.3253774000000007</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
@@ -1586,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="0">
-        <v>36.146881999999998</v>
+        <v>37.265362699999997</v>
       </c>
       <c r="D57" s="0">
         <v>76</v>
@@ -1606,16 +1646,16 @@
         <v>3</v>
       </c>
       <c r="C58" s="0">
-        <v>36.418361699999998</v>
+        <v>37.553854700000002</v>
       </c>
       <c r="D58" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E58" s="0">
         <v>1</v>
       </c>
       <c r="F58" s="0">
-        <v>0.27147970000000043</v>
+        <v>0.28849200000000508</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
@@ -1626,10 +1666,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="0">
-        <v>36.656595199999998</v>
+        <v>37.711134000000001</v>
       </c>
       <c r="D59" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E59" s="0">
         <v>0</v>
@@ -1646,16 +1686,16 @@
         <v>3</v>
       </c>
       <c r="C60" s="0">
-        <v>36.913175000000003</v>
+        <v>38.012766399999997</v>
       </c>
       <c r="D60" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E60" s="0">
         <v>1</v>
       </c>
       <c r="F60" s="0">
-        <v>0.25657980000000435</v>
+        <v>0.30163239999999547</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
@@ -1666,10 +1706,10 @@
         <v>3</v>
       </c>
       <c r="C61" s="0">
-        <v>37.152601500000003</v>
+        <v>38.174608800000001</v>
       </c>
       <c r="D61" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -1686,10 +1726,10 @@
         <v>4</v>
       </c>
       <c r="C62" s="0">
-        <v>45.345209500000003</v>
+        <v>45.266725299999997</v>
       </c>
       <c r="D62" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E62" s="0">
         <v>1</v>
@@ -1706,10 +1746,10 @@
         <v>4</v>
       </c>
       <c r="C63" s="0">
-        <v>45.600467000000002</v>
+        <v>45.437975600000001</v>
       </c>
       <c r="D63" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
@@ -1726,16 +1766,16 @@
         <v>4</v>
       </c>
       <c r="C64" s="0">
-        <v>45.808774900000003</v>
+        <v>45.760501400000003</v>
       </c>
       <c r="D64" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E64" s="0">
         <v>1</v>
       </c>
       <c r="F64" s="0">
-        <v>0.20830790000000121</v>
+        <v>0.32252580000000108</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
@@ -1746,10 +1786,10 @@
         <v>4</v>
       </c>
       <c r="C65" s="0">
-        <v>46.014199400000003</v>
+        <v>45.886486099999999</v>
       </c>
       <c r="D65" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -1766,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="0">
-        <v>46.269533000000003</v>
+        <v>46.238851500000003</v>
       </c>
       <c r="D66" s="0">
         <v>76</v>
@@ -1775,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="0">
-        <v>0.25533360000000016</v>
+        <v>0.3523654000000036</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25">
@@ -1786,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="0">
-        <v>46.459936300000003</v>
+        <v>46.3510141</v>
       </c>
       <c r="D67" s="0">
         <v>76</v>
@@ -1806,16 +1846,16 @@
         <v>4</v>
       </c>
       <c r="C68" s="0">
-        <v>46.7162845</v>
+        <v>46.653198799999998</v>
       </c>
       <c r="D68" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E68" s="0">
         <v>1</v>
       </c>
       <c r="F68" s="0">
-        <v>0.25634819999999792</v>
+        <v>0.30218469999999797</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
@@ -1826,10 +1866,10 @@
         <v>4</v>
       </c>
       <c r="C69" s="0">
-        <v>46.939821000000002</v>
+        <v>46.810675400000001</v>
       </c>
       <c r="D69" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E69" s="0">
         <v>0</v>
@@ -1846,16 +1886,16 @@
         <v>4</v>
       </c>
       <c r="C70" s="0">
-        <v>47.212157500000004</v>
+        <v>47.118570800000001</v>
       </c>
       <c r="D70" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E70" s="0">
         <v>1</v>
       </c>
       <c r="F70" s="0">
-        <v>0.27233650000000154</v>
+        <v>0.3078953999999996</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
@@ -1866,10 +1906,10 @@
         <v>4</v>
       </c>
       <c r="C71" s="0">
-        <v>47.419645799999998</v>
+        <v>47.272388100000001</v>
       </c>
       <c r="D71" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E71" s="0">
         <v>0</v>
@@ -1886,16 +1926,16 @@
         <v>4</v>
       </c>
       <c r="C72" s="0">
-        <v>48.104499699999998</v>
+        <v>48.296653900000003</v>
       </c>
       <c r="D72" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E72" s="0">
         <v>1</v>
       </c>
       <c r="F72" s="0">
-        <v>0.68485390000000024</v>
+        <v>1.024265800000002</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
@@ -1906,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="C73" s="0">
-        <v>48.3268038</v>
+        <v>48.476193799999997</v>
       </c>
       <c r="D73" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E73" s="0">
         <v>0</v>
@@ -1926,16 +1966,16 @@
         <v>4</v>
       </c>
       <c r="C74" s="0">
-        <v>48.5501486</v>
+        <v>48.854145000000003</v>
       </c>
       <c r="D74" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E74" s="0">
         <v>1</v>
       </c>
       <c r="F74" s="0">
-        <v>0.22334479999999957</v>
+        <v>0.37795120000000537</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
@@ -1946,10 +1986,10 @@
         <v>4</v>
       </c>
       <c r="C75" s="0">
-        <v>48.788568699999999</v>
+        <v>48.985919899999999</v>
       </c>
       <c r="D75" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E75" s="0">
         <v>0</v>
@@ -1966,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="0">
-        <v>49.044854000000001</v>
+        <v>49.290405200000002</v>
       </c>
       <c r="D76" s="0">
         <v>76</v>
@@ -1975,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="0">
-        <v>0.25628530000000183</v>
+        <v>0.30448530000000318</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25">
@@ -1986,7 +2026,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="0">
-        <v>49.252166799999998</v>
+        <v>49.397519899999999</v>
       </c>
       <c r="D77" s="0">
         <v>76</v>
@@ -2006,16 +2046,16 @@
         <v>4</v>
       </c>
       <c r="C78" s="0">
-        <v>49.492797899999999</v>
+        <v>49.684635399999998</v>
       </c>
       <c r="D78" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E78" s="0">
         <v>1</v>
       </c>
       <c r="F78" s="0">
-        <v>0.24063110000000165</v>
+        <v>0.28711549999999875</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
@@ -2026,10 +2066,10 @@
         <v>4</v>
       </c>
       <c r="C79" s="0">
-        <v>49.732014800000002</v>
+        <v>49.828368500000003</v>
       </c>
       <c r="D79" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E79" s="0">
         <v>0</v>
@@ -2046,16 +2086,16 @@
         <v>4</v>
       </c>
       <c r="C80" s="0">
-        <v>50.132251199999999</v>
+        <v>50.326122900000001</v>
       </c>
       <c r="D80" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E80" s="0">
         <v>1</v>
       </c>
       <c r="F80" s="0">
-        <v>0.40023639999999716</v>
+        <v>0.49775439999999804</v>
       </c>
     </row>
     <row r="81" x14ac:dyDescent="0.25">
@@ -2066,15 +2106,4815 @@
         <v>4</v>
       </c>
       <c r="C81" s="0">
-        <v>50.422764999999998</v>
+        <v>50.488297199999998</v>
       </c>
       <c r="D81" s="0">
+        <v>72</v>
+      </c>
+      <c r="E81" s="0">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>1</v>
+      </c>
+      <c r="B82" s="0">
+        <v>5</v>
+      </c>
+      <c r="C82" s="0">
+        <v>57.945985899999997</v>
+      </c>
+      <c r="D82" s="0">
         <v>79</v>
       </c>
-      <c r="E81" s="0">
-        <v>0</v>
-      </c>
-      <c r="F81" s="0">
+      <c r="E82" s="0">
+        <v>1</v>
+      </c>
+      <c r="F82" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>1</v>
+      </c>
+      <c r="B83" s="0">
+        <v>5</v>
+      </c>
+      <c r="C83" s="0">
+        <v>58.1257187</v>
+      </c>
+      <c r="D83" s="0">
+        <v>79</v>
+      </c>
+      <c r="E83" s="0">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>1</v>
+      </c>
+      <c r="B84" s="0">
+        <v>5</v>
+      </c>
+      <c r="C84" s="0">
+        <v>58.415944699999997</v>
+      </c>
+      <c r="D84" s="0">
+        <v>77</v>
+      </c>
+      <c r="E84" s="0">
+        <v>1</v>
+      </c>
+      <c r="F84" s="0">
+        <v>0.29022599999999699</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>1</v>
+      </c>
+      <c r="B85" s="0">
+        <v>5</v>
+      </c>
+      <c r="C85" s="0">
+        <v>58.573308599999997</v>
+      </c>
+      <c r="D85" s="0">
+        <v>77</v>
+      </c>
+      <c r="E85" s="0">
+        <v>0</v>
+      </c>
+      <c r="F85" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>1</v>
+      </c>
+      <c r="B86" s="0">
+        <v>5</v>
+      </c>
+      <c r="C86" s="0">
+        <v>58.842334100000002</v>
+      </c>
+      <c r="D86" s="0">
+        <v>76</v>
+      </c>
+      <c r="E86" s="0">
+        <v>1</v>
+      </c>
+      <c r="F86" s="0">
+        <v>0.26902550000000502</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>1</v>
+      </c>
+      <c r="B87" s="0">
+        <v>5</v>
+      </c>
+      <c r="C87" s="0">
+        <v>58.952922200000003</v>
+      </c>
+      <c r="D87" s="0">
+        <v>76</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0</v>
+      </c>
+      <c r="F87" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>1</v>
+      </c>
+      <c r="B88" s="0">
+        <v>5</v>
+      </c>
+      <c r="C88" s="0">
+        <v>59.182334699999998</v>
+      </c>
+      <c r="D88" s="0">
+        <v>74</v>
+      </c>
+      <c r="E88" s="0">
+        <v>1</v>
+      </c>
+      <c r="F88" s="0">
+        <v>0.22941249999999513</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>1</v>
+      </c>
+      <c r="B89" s="0">
+        <v>5</v>
+      </c>
+      <c r="C89" s="0">
+        <v>59.340587900000003</v>
+      </c>
+      <c r="D89" s="0">
+        <v>74</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0</v>
+      </c>
+      <c r="F89" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>1</v>
+      </c>
+      <c r="B90" s="0">
+        <v>5</v>
+      </c>
+      <c r="C90" s="0">
+        <v>59.720951599999999</v>
+      </c>
+      <c r="D90" s="0">
+        <v>72</v>
+      </c>
+      <c r="E90" s="0">
+        <v>1</v>
+      </c>
+      <c r="F90" s="0">
+        <v>0.38036369999999664</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>1</v>
+      </c>
+      <c r="B91" s="0">
+        <v>5</v>
+      </c>
+      <c r="C91" s="0">
+        <v>59.867565800000001</v>
+      </c>
+      <c r="D91" s="0">
+        <v>72</v>
+      </c>
+      <c r="E91" s="0">
+        <v>0</v>
+      </c>
+      <c r="F91" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>1</v>
+      </c>
+      <c r="B92" s="0">
+        <v>5</v>
+      </c>
+      <c r="C92" s="0">
+        <v>60.390518800000002</v>
+      </c>
+      <c r="D92" s="0">
+        <v>79</v>
+      </c>
+      <c r="E92" s="0">
+        <v>1</v>
+      </c>
+      <c r="F92" s="0">
+        <v>0.52295300000000111</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>1</v>
+      </c>
+      <c r="B93" s="0">
+        <v>5</v>
+      </c>
+      <c r="C93" s="0">
+        <v>60.533965000000002</v>
+      </c>
+      <c r="D93" s="0">
+        <v>79</v>
+      </c>
+      <c r="E93" s="0">
+        <v>0</v>
+      </c>
+      <c r="F93" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>1</v>
+      </c>
+      <c r="B94" s="0">
+        <v>5</v>
+      </c>
+      <c r="C94" s="0">
+        <v>60.825173800000002</v>
+      </c>
+      <c r="D94" s="0">
+        <v>77</v>
+      </c>
+      <c r="E94" s="0">
+        <v>1</v>
+      </c>
+      <c r="F94" s="0">
+        <v>0.29120879999999971</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>1</v>
+      </c>
+      <c r="B95" s="0">
+        <v>5</v>
+      </c>
+      <c r="C95" s="0">
+        <v>60.951754899999997</v>
+      </c>
+      <c r="D95" s="0">
+        <v>77</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0</v>
+      </c>
+      <c r="F95" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>1</v>
+      </c>
+      <c r="B96" s="0">
+        <v>5</v>
+      </c>
+      <c r="C96" s="0">
+        <v>61.211344099999998</v>
+      </c>
+      <c r="D96" s="0">
+        <v>76</v>
+      </c>
+      <c r="E96" s="0">
+        <v>1</v>
+      </c>
+      <c r="F96" s="0">
+        <v>0.25958920000000063</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>1</v>
+      </c>
+      <c r="B97" s="0">
+        <v>5</v>
+      </c>
+      <c r="C97" s="0">
+        <v>61.305419899999997</v>
+      </c>
+      <c r="D97" s="0">
+        <v>76</v>
+      </c>
+      <c r="E97" s="0">
+        <v>0</v>
+      </c>
+      <c r="F97" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>1</v>
+      </c>
+      <c r="B98" s="0">
+        <v>5</v>
+      </c>
+      <c r="C98" s="0">
+        <v>61.532076500000002</v>
+      </c>
+      <c r="D98" s="0">
+        <v>74</v>
+      </c>
+      <c r="E98" s="0">
+        <v>1</v>
+      </c>
+      <c r="F98" s="0">
+        <v>0.22665660000000543</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>1</v>
+      </c>
+      <c r="B99" s="0">
+        <v>5</v>
+      </c>
+      <c r="C99" s="0">
+        <v>61.672378799999997</v>
+      </c>
+      <c r="D99" s="0">
+        <v>74</v>
+      </c>
+      <c r="E99" s="0">
+        <v>0</v>
+      </c>
+      <c r="F99" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>1</v>
+      </c>
+      <c r="B100" s="0">
+        <v>5</v>
+      </c>
+      <c r="C100" s="0">
+        <v>61.972757799999997</v>
+      </c>
+      <c r="D100" s="0">
+        <v>72</v>
+      </c>
+      <c r="E100" s="0">
+        <v>1</v>
+      </c>
+      <c r="F100" s="0">
+        <v>0.30037899999999951</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>1</v>
+      </c>
+      <c r="B101" s="0">
+        <v>5</v>
+      </c>
+      <c r="C101" s="0">
+        <v>62.100706600000002</v>
+      </c>
+      <c r="D101" s="0">
+        <v>72</v>
+      </c>
+      <c r="E101" s="0">
+        <v>0</v>
+      </c>
+      <c r="F101" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>1</v>
+      </c>
+      <c r="B102" s="0">
+        <v>6</v>
+      </c>
+      <c r="C102" s="0">
+        <v>70.851336399999994</v>
+      </c>
+      <c r="D102" s="0">
+        <v>79</v>
+      </c>
+      <c r="E102" s="0">
+        <v>1</v>
+      </c>
+      <c r="F102" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>1</v>
+      </c>
+      <c r="B103" s="0">
+        <v>6</v>
+      </c>
+      <c r="C103" s="0">
+        <v>71.020190200000002</v>
+      </c>
+      <c r="D103" s="0">
+        <v>79</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0</v>
+      </c>
+      <c r="F103" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>1</v>
+      </c>
+      <c r="B104" s="0">
+        <v>6</v>
+      </c>
+      <c r="C104" s="0">
+        <v>71.296243799999999</v>
+      </c>
+      <c r="D104" s="0">
+        <v>77</v>
+      </c>
+      <c r="E104" s="0">
+        <v>1</v>
+      </c>
+      <c r="F104" s="0">
+        <v>0.27605359999999735</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>1</v>
+      </c>
+      <c r="B105" s="0">
+        <v>6</v>
+      </c>
+      <c r="C105" s="0">
+        <v>71.439711500000001</v>
+      </c>
+      <c r="D105" s="0">
+        <v>77</v>
+      </c>
+      <c r="E105" s="0">
+        <v>0</v>
+      </c>
+      <c r="F105" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>1</v>
+      </c>
+      <c r="B106" s="0">
+        <v>6</v>
+      </c>
+      <c r="C106" s="0">
+        <v>71.6760077</v>
+      </c>
+      <c r="D106" s="0">
+        <v>76</v>
+      </c>
+      <c r="E106" s="0">
+        <v>1</v>
+      </c>
+      <c r="F106" s="0">
+        <v>0.23629619999999818</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>1</v>
+      </c>
+      <c r="B107" s="0">
+        <v>6</v>
+      </c>
+      <c r="C107" s="0">
+        <v>71.772943400000003</v>
+      </c>
+      <c r="D107" s="0">
+        <v>76</v>
+      </c>
+      <c r="E107" s="0">
+        <v>0</v>
+      </c>
+      <c r="F107" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>1</v>
+      </c>
+      <c r="B108" s="0">
+        <v>6</v>
+      </c>
+      <c r="C108" s="0">
+        <v>71.950718499999994</v>
+      </c>
+      <c r="D108" s="0">
+        <v>74</v>
+      </c>
+      <c r="E108" s="0">
+        <v>1</v>
+      </c>
+      <c r="F108" s="0">
+        <v>0.17777509999999097</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>1</v>
+      </c>
+      <c r="B109" s="0">
+        <v>6</v>
+      </c>
+      <c r="C109" s="0">
+        <v>72.093515400000001</v>
+      </c>
+      <c r="D109" s="0">
+        <v>74</v>
+      </c>
+      <c r="E109" s="0">
+        <v>0</v>
+      </c>
+      <c r="F109" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>1</v>
+      </c>
+      <c r="B110" s="0">
+        <v>6</v>
+      </c>
+      <c r="C110" s="0">
+        <v>72.424572999999995</v>
+      </c>
+      <c r="D110" s="0">
+        <v>72</v>
+      </c>
+      <c r="E110" s="0">
+        <v>1</v>
+      </c>
+      <c r="F110" s="0">
+        <v>0.33105759999999407</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>1</v>
+      </c>
+      <c r="B111" s="0">
+        <v>6</v>
+      </c>
+      <c r="C111" s="0">
+        <v>72.583136400000001</v>
+      </c>
+      <c r="D111" s="0">
+        <v>72</v>
+      </c>
+      <c r="E111" s="0">
+        <v>0</v>
+      </c>
+      <c r="F111" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>1</v>
+      </c>
+      <c r="B112" s="0">
+        <v>6</v>
+      </c>
+      <c r="C112" s="0">
+        <v>72.982363100000001</v>
+      </c>
+      <c r="D112" s="0">
+        <v>79</v>
+      </c>
+      <c r="E112" s="0">
+        <v>1</v>
+      </c>
+      <c r="F112" s="0">
+        <v>0.39922669999999982</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>1</v>
+      </c>
+      <c r="B113" s="0">
+        <v>6</v>
+      </c>
+      <c r="C113" s="0">
+        <v>73.141858299999996</v>
+      </c>
+      <c r="D113" s="0">
+        <v>79</v>
+      </c>
+      <c r="E113" s="0">
+        <v>0</v>
+      </c>
+      <c r="F113" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>1</v>
+      </c>
+      <c r="B114" s="0">
+        <v>6</v>
+      </c>
+      <c r="C114" s="0">
+        <v>73.389299899999997</v>
+      </c>
+      <c r="D114" s="0">
+        <v>77</v>
+      </c>
+      <c r="E114" s="0">
+        <v>1</v>
+      </c>
+      <c r="F114" s="0">
+        <v>0.24744160000000193</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>1</v>
+      </c>
+      <c r="B115" s="0">
+        <v>6</v>
+      </c>
+      <c r="C115" s="0">
+        <v>73.561720600000001</v>
+      </c>
+      <c r="D115" s="0">
+        <v>77</v>
+      </c>
+      <c r="E115" s="0">
+        <v>0</v>
+      </c>
+      <c r="F115" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>1</v>
+      </c>
+      <c r="B116" s="0">
+        <v>6</v>
+      </c>
+      <c r="C116" s="0">
+        <v>73.770375999999999</v>
+      </c>
+      <c r="D116" s="0">
+        <v>76</v>
+      </c>
+      <c r="E116" s="0">
+        <v>1</v>
+      </c>
+      <c r="F116" s="0">
+        <v>0.20865539999999783</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>1</v>
+      </c>
+      <c r="B117" s="0">
+        <v>6</v>
+      </c>
+      <c r="C117" s="0">
+        <v>73.877165099999999</v>
+      </c>
+      <c r="D117" s="0">
+        <v>76</v>
+      </c>
+      <c r="E117" s="0">
+        <v>0</v>
+      </c>
+      <c r="F117" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>1</v>
+      </c>
+      <c r="B118" s="0">
+        <v>6</v>
+      </c>
+      <c r="C118" s="0">
+        <v>74.073001599999998</v>
+      </c>
+      <c r="D118" s="0">
+        <v>74</v>
+      </c>
+      <c r="E118" s="0">
+        <v>1</v>
+      </c>
+      <c r="F118" s="0">
+        <v>0.19583649999999864</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>1</v>
+      </c>
+      <c r="B119" s="0">
+        <v>6</v>
+      </c>
+      <c r="C119" s="0">
+        <v>74.198250999999999</v>
+      </c>
+      <c r="D119" s="0">
+        <v>74</v>
+      </c>
+      <c r="E119" s="0">
+        <v>0</v>
+      </c>
+      <c r="F119" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>1</v>
+      </c>
+      <c r="B120" s="0">
+        <v>6</v>
+      </c>
+      <c r="C120" s="0">
+        <v>74.424544800000007</v>
+      </c>
+      <c r="D120" s="0">
+        <v>72</v>
+      </c>
+      <c r="E120" s="0">
+        <v>1</v>
+      </c>
+      <c r="F120" s="0">
+        <v>0.22629380000000765</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>1</v>
+      </c>
+      <c r="B121" s="0">
+        <v>6</v>
+      </c>
+      <c r="C121" s="0">
+        <v>74.598770400000006</v>
+      </c>
+      <c r="D121" s="0">
+        <v>72</v>
+      </c>
+      <c r="E121" s="0">
+        <v>0</v>
+      </c>
+      <c r="F121" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>1</v>
+      </c>
+      <c r="B122" s="0">
+        <v>7</v>
+      </c>
+      <c r="C122" s="0">
+        <v>84.155265700000001</v>
+      </c>
+      <c r="D122" s="0">
+        <v>79</v>
+      </c>
+      <c r="E122" s="0">
+        <v>1</v>
+      </c>
+      <c r="F122" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>1</v>
+      </c>
+      <c r="B123" s="0">
+        <v>7</v>
+      </c>
+      <c r="C123" s="0">
+        <v>84.357637299999993</v>
+      </c>
+      <c r="D123" s="0">
+        <v>79</v>
+      </c>
+      <c r="E123" s="0">
+        <v>0</v>
+      </c>
+      <c r="F123" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>1</v>
+      </c>
+      <c r="B124" s="0">
+        <v>7</v>
+      </c>
+      <c r="C124" s="0">
+        <v>84.581892100000005</v>
+      </c>
+      <c r="D124" s="0">
+        <v>77</v>
+      </c>
+      <c r="E124" s="0">
+        <v>1</v>
+      </c>
+      <c r="F124" s="0">
+        <v>0.2242548000000113</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>1</v>
+      </c>
+      <c r="B125" s="0">
+        <v>7</v>
+      </c>
+      <c r="C125" s="0">
+        <v>84.751960800000006</v>
+      </c>
+      <c r="D125" s="0">
+        <v>77</v>
+      </c>
+      <c r="E125" s="0">
+        <v>0</v>
+      </c>
+      <c r="F125" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>1</v>
+      </c>
+      <c r="B126" s="0">
+        <v>7</v>
+      </c>
+      <c r="C126" s="0">
+        <v>84.981089699999998</v>
+      </c>
+      <c r="D126" s="0">
+        <v>76</v>
+      </c>
+      <c r="E126" s="0">
+        <v>1</v>
+      </c>
+      <c r="F126" s="0">
+        <v>0.22912889999999209</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>1</v>
+      </c>
+      <c r="B127" s="0">
+        <v>7</v>
+      </c>
+      <c r="C127" s="0">
+        <v>85.090923599999996</v>
+      </c>
+      <c r="D127" s="0">
+        <v>76</v>
+      </c>
+      <c r="E127" s="0">
+        <v>0</v>
+      </c>
+      <c r="F127" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>1</v>
+      </c>
+      <c r="B128" s="0">
+        <v>7</v>
+      </c>
+      <c r="C128" s="0">
+        <v>85.301727799999995</v>
+      </c>
+      <c r="D128" s="0">
+        <v>74</v>
+      </c>
+      <c r="E128" s="0">
+        <v>1</v>
+      </c>
+      <c r="F128" s="0">
+        <v>0.21080419999999833</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>1</v>
+      </c>
+      <c r="B129" s="0">
+        <v>7</v>
+      </c>
+      <c r="C129" s="0">
+        <v>85.439206499999997</v>
+      </c>
+      <c r="D129" s="0">
+        <v>74</v>
+      </c>
+      <c r="E129" s="0">
+        <v>0</v>
+      </c>
+      <c r="F129" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>1</v>
+      </c>
+      <c r="B130" s="0">
+        <v>7</v>
+      </c>
+      <c r="C130" s="0">
+        <v>85.711710600000004</v>
+      </c>
+      <c r="D130" s="0">
+        <v>72</v>
+      </c>
+      <c r="E130" s="0">
+        <v>1</v>
+      </c>
+      <c r="F130" s="0">
+        <v>0.27250410000000613</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>1</v>
+      </c>
+      <c r="B131" s="0">
+        <v>7</v>
+      </c>
+      <c r="C131" s="0">
+        <v>85.838026299999996</v>
+      </c>
+      <c r="D131" s="0">
+        <v>72</v>
+      </c>
+      <c r="E131" s="0">
+        <v>0</v>
+      </c>
+      <c r="F131" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>1</v>
+      </c>
+      <c r="B132" s="0">
+        <v>7</v>
+      </c>
+      <c r="C132" s="0">
+        <v>86.285118499999996</v>
+      </c>
+      <c r="D132" s="0">
+        <v>79</v>
+      </c>
+      <c r="E132" s="0">
+        <v>1</v>
+      </c>
+      <c r="F132" s="0">
+        <v>0.44709220000000016</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>1</v>
+      </c>
+      <c r="B133" s="0">
+        <v>7</v>
+      </c>
+      <c r="C133" s="0">
+        <v>86.428865599999995</v>
+      </c>
+      <c r="D133" s="0">
+        <v>79</v>
+      </c>
+      <c r="E133" s="0">
+        <v>0</v>
+      </c>
+      <c r="F133" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>1</v>
+      </c>
+      <c r="B134" s="0">
+        <v>7</v>
+      </c>
+      <c r="C134" s="0">
+        <v>86.668954499999998</v>
+      </c>
+      <c r="D134" s="0">
+        <v>77</v>
+      </c>
+      <c r="E134" s="0">
+        <v>1</v>
+      </c>
+      <c r="F134" s="0">
+        <v>0.24008890000000349</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>1</v>
+      </c>
+      <c r="B135" s="0">
+        <v>7</v>
+      </c>
+      <c r="C135" s="0">
+        <v>86.811817099999999</v>
+      </c>
+      <c r="D135" s="0">
+        <v>77</v>
+      </c>
+      <c r="E135" s="0">
+        <v>0</v>
+      </c>
+      <c r="F135" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>1</v>
+      </c>
+      <c r="B136" s="0">
+        <v>7</v>
+      </c>
+      <c r="C136" s="0">
+        <v>87.022933499999994</v>
+      </c>
+      <c r="D136" s="0">
+        <v>76</v>
+      </c>
+      <c r="E136" s="0">
+        <v>1</v>
+      </c>
+      <c r="F136" s="0">
+        <v>0.21111639999999454</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>1</v>
+      </c>
+      <c r="B137" s="0">
+        <v>7</v>
+      </c>
+      <c r="C137" s="0">
+        <v>87.129961600000001</v>
+      </c>
+      <c r="D137" s="0">
+        <v>76</v>
+      </c>
+      <c r="E137" s="0">
+        <v>0</v>
+      </c>
+      <c r="F137" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>1</v>
+      </c>
+      <c r="B138" s="0">
+        <v>7</v>
+      </c>
+      <c r="C138" s="0">
+        <v>87.326476499999998</v>
+      </c>
+      <c r="D138" s="0">
+        <v>74</v>
+      </c>
+      <c r="E138" s="0">
+        <v>1</v>
+      </c>
+      <c r="F138" s="0">
+        <v>0.19651489999999683</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>1</v>
+      </c>
+      <c r="B139" s="0">
+        <v>7</v>
+      </c>
+      <c r="C139" s="0">
+        <v>87.484931900000007</v>
+      </c>
+      <c r="D139" s="0">
+        <v>74</v>
+      </c>
+      <c r="E139" s="0">
+        <v>0</v>
+      </c>
+      <c r="F139" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>1</v>
+      </c>
+      <c r="B140" s="0">
+        <v>7</v>
+      </c>
+      <c r="C140" s="0">
+        <v>87.758693600000001</v>
+      </c>
+      <c r="D140" s="0">
+        <v>72</v>
+      </c>
+      <c r="E140" s="0">
+        <v>1</v>
+      </c>
+      <c r="F140" s="0">
+        <v>0.27376169999999433</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>1</v>
+      </c>
+      <c r="B141" s="0">
+        <v>7</v>
+      </c>
+      <c r="C141" s="0">
+        <v>87.897604200000004</v>
+      </c>
+      <c r="D141" s="0">
+        <v>72</v>
+      </c>
+      <c r="E141" s="0">
+        <v>0</v>
+      </c>
+      <c r="F141" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>1</v>
+      </c>
+      <c r="B142" s="0">
+        <v>8</v>
+      </c>
+      <c r="C142" s="0">
+        <v>97.193441100000001</v>
+      </c>
+      <c r="D142" s="0">
+        <v>79</v>
+      </c>
+      <c r="E142" s="0">
+        <v>1</v>
+      </c>
+      <c r="F142" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>1</v>
+      </c>
+      <c r="B143" s="0">
+        <v>8</v>
+      </c>
+      <c r="C143" s="0">
+        <v>97.3956819</v>
+      </c>
+      <c r="D143" s="0">
+        <v>79</v>
+      </c>
+      <c r="E143" s="0">
+        <v>0</v>
+      </c>
+      <c r="F143" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>1</v>
+      </c>
+      <c r="B144" s="0">
+        <v>8</v>
+      </c>
+      <c r="C144" s="0">
+        <v>97.7781497</v>
+      </c>
+      <c r="D144" s="0">
+        <v>77</v>
+      </c>
+      <c r="E144" s="0">
+        <v>1</v>
+      </c>
+      <c r="F144" s="0">
+        <v>0.38246780000000058</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>1</v>
+      </c>
+      <c r="B145" s="0">
+        <v>8</v>
+      </c>
+      <c r="C145" s="0">
+        <v>97.920085400000005</v>
+      </c>
+      <c r="D145" s="0">
+        <v>77</v>
+      </c>
+      <c r="E145" s="0">
+        <v>0</v>
+      </c>
+      <c r="F145" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>1</v>
+      </c>
+      <c r="B146" s="0">
+        <v>8</v>
+      </c>
+      <c r="C146" s="0">
+        <v>98.240708499999997</v>
+      </c>
+      <c r="D146" s="0">
+        <v>76</v>
+      </c>
+      <c r="E146" s="0">
+        <v>1</v>
+      </c>
+      <c r="F146" s="0">
+        <v>0.32062309999999172</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>1</v>
+      </c>
+      <c r="B147" s="0">
+        <v>8</v>
+      </c>
+      <c r="C147" s="0">
+        <v>98.336350699999997</v>
+      </c>
+      <c r="D147" s="0">
+        <v>76</v>
+      </c>
+      <c r="E147" s="0">
+        <v>0</v>
+      </c>
+      <c r="F147" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>1</v>
+      </c>
+      <c r="B148" s="0">
+        <v>8</v>
+      </c>
+      <c r="C148" s="0">
+        <v>98.582414600000007</v>
+      </c>
+      <c r="D148" s="0">
+        <v>74</v>
+      </c>
+      <c r="E148" s="0">
+        <v>1</v>
+      </c>
+      <c r="F148" s="0">
+        <v>0.24606390000000999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>1</v>
+      </c>
+      <c r="B149" s="0">
+        <v>8</v>
+      </c>
+      <c r="C149" s="0">
+        <v>98.704191100000003</v>
+      </c>
+      <c r="D149" s="0">
+        <v>74</v>
+      </c>
+      <c r="E149" s="0">
+        <v>0</v>
+      </c>
+      <c r="F149" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>1</v>
+      </c>
+      <c r="B150" s="0">
+        <v>8</v>
+      </c>
+      <c r="C150" s="0">
+        <v>99.056067499999997</v>
+      </c>
+      <c r="D150" s="0">
+        <v>72</v>
+      </c>
+      <c r="E150" s="0">
+        <v>1</v>
+      </c>
+      <c r="F150" s="0">
+        <v>0.35187639999999476</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>1</v>
+      </c>
+      <c r="B151" s="0">
+        <v>8</v>
+      </c>
+      <c r="C151" s="0">
+        <v>99.2200208</v>
+      </c>
+      <c r="D151" s="0">
+        <v>72</v>
+      </c>
+      <c r="E151" s="0">
+        <v>0</v>
+      </c>
+      <c r="F151" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>1</v>
+      </c>
+      <c r="B152" s="0">
+        <v>8</v>
+      </c>
+      <c r="C152" s="0">
+        <v>100.5252055</v>
+      </c>
+      <c r="D152" s="0">
+        <v>79</v>
+      </c>
+      <c r="E152" s="0">
+        <v>1</v>
+      </c>
+      <c r="F152" s="0">
+        <v>1.3051846999999981</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>1</v>
+      </c>
+      <c r="B153" s="0">
+        <v>8</v>
+      </c>
+      <c r="C153" s="0">
+        <v>100.6882043</v>
+      </c>
+      <c r="D153" s="0">
+        <v>79</v>
+      </c>
+      <c r="E153" s="0">
+        <v>0</v>
+      </c>
+      <c r="F153" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>1</v>
+      </c>
+      <c r="B154" s="0">
+        <v>8</v>
+      </c>
+      <c r="C154" s="0">
+        <v>100.97479079999999</v>
+      </c>
+      <c r="D154" s="0">
+        <v>77</v>
+      </c>
+      <c r="E154" s="0">
+        <v>1</v>
+      </c>
+      <c r="F154" s="0">
+        <v>0.28658649999999852</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>1</v>
+      </c>
+      <c r="B155" s="0">
+        <v>8</v>
+      </c>
+      <c r="C155" s="0">
+        <v>101.1122847</v>
+      </c>
+      <c r="D155" s="0">
+        <v>77</v>
+      </c>
+      <c r="E155" s="0">
+        <v>0</v>
+      </c>
+      <c r="F155" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>1</v>
+      </c>
+      <c r="B156" s="0">
+        <v>8</v>
+      </c>
+      <c r="C156" s="0">
+        <v>101.3898903</v>
+      </c>
+      <c r="D156" s="0">
+        <v>76</v>
+      </c>
+      <c r="E156" s="0">
+        <v>1</v>
+      </c>
+      <c r="F156" s="0">
+        <v>0.27760560000000112</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>1</v>
+      </c>
+      <c r="B157" s="0">
+        <v>8</v>
+      </c>
+      <c r="C157" s="0">
+        <v>101.4844279</v>
+      </c>
+      <c r="D157" s="0">
+        <v>76</v>
+      </c>
+      <c r="E157" s="0">
+        <v>0</v>
+      </c>
+      <c r="F157" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>1</v>
+      </c>
+      <c r="B158" s="0">
+        <v>8</v>
+      </c>
+      <c r="C158" s="0">
+        <v>101.71002799999999</v>
+      </c>
+      <c r="D158" s="0">
+        <v>74</v>
+      </c>
+      <c r="E158" s="0">
+        <v>1</v>
+      </c>
+      <c r="F158" s="0">
+        <v>0.22560009999999409</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>1</v>
+      </c>
+      <c r="B159" s="0">
+        <v>8</v>
+      </c>
+      <c r="C159" s="0">
+        <v>101.8839529</v>
+      </c>
+      <c r="D159" s="0">
+        <v>74</v>
+      </c>
+      <c r="E159" s="0">
+        <v>0</v>
+      </c>
+      <c r="F159" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>1</v>
+      </c>
+      <c r="B160" s="0">
+        <v>8</v>
+      </c>
+      <c r="C160" s="0">
+        <v>102.3767383</v>
+      </c>
+      <c r="D160" s="0">
+        <v>72</v>
+      </c>
+      <c r="E160" s="0">
+        <v>1</v>
+      </c>
+      <c r="F160" s="0">
+        <v>0.49278540000000248</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>1</v>
+      </c>
+      <c r="B161" s="0">
+        <v>8</v>
+      </c>
+      <c r="C161" s="0">
+        <v>102.5565783</v>
+      </c>
+      <c r="D161" s="0">
+        <v>72</v>
+      </c>
+      <c r="E161" s="0">
+        <v>0</v>
+      </c>
+      <c r="F161" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>1</v>
+      </c>
+      <c r="B162" s="0">
+        <v>9</v>
+      </c>
+      <c r="C162" s="0">
+        <v>109.8859082</v>
+      </c>
+      <c r="D162" s="0">
+        <v>79</v>
+      </c>
+      <c r="E162" s="0">
+        <v>1</v>
+      </c>
+      <c r="F162" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>1</v>
+      </c>
+      <c r="B163" s="0">
+        <v>9</v>
+      </c>
+      <c r="C163" s="0">
+        <v>110.028648</v>
+      </c>
+      <c r="D163" s="0">
+        <v>79</v>
+      </c>
+      <c r="E163" s="0">
+        <v>0</v>
+      </c>
+      <c r="F163" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>1</v>
+      </c>
+      <c r="B164" s="0">
+        <v>9</v>
+      </c>
+      <c r="C164" s="0">
+        <v>110.26501159999999</v>
+      </c>
+      <c r="D164" s="0">
+        <v>77</v>
+      </c>
+      <c r="E164" s="0">
+        <v>1</v>
+      </c>
+      <c r="F164" s="0">
+        <v>0.23636359999999002</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>1</v>
+      </c>
+      <c r="B165" s="0">
+        <v>9</v>
+      </c>
+      <c r="C165" s="0">
+        <v>110.3596151</v>
+      </c>
+      <c r="D165" s="0">
+        <v>77</v>
+      </c>
+      <c r="E165" s="0">
+        <v>0</v>
+      </c>
+      <c r="F165" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>1</v>
+      </c>
+      <c r="B166" s="0">
+        <v>9</v>
+      </c>
+      <c r="C166" s="0">
+        <v>110.55278199999999</v>
+      </c>
+      <c r="D166" s="0">
+        <v>76</v>
+      </c>
+      <c r="E166" s="0">
+        <v>1</v>
+      </c>
+      <c r="F166" s="0">
+        <v>0.19316689999999426</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>1</v>
+      </c>
+      <c r="B167" s="0">
+        <v>9</v>
+      </c>
+      <c r="C167" s="0">
+        <v>110.6501451</v>
+      </c>
+      <c r="D167" s="0">
+        <v>76</v>
+      </c>
+      <c r="E167" s="0">
+        <v>0</v>
+      </c>
+      <c r="F167" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>1</v>
+      </c>
+      <c r="B168" s="0">
+        <v>9</v>
+      </c>
+      <c r="C168" s="0">
+        <v>110.8385305</v>
+      </c>
+      <c r="D168" s="0">
+        <v>74</v>
+      </c>
+      <c r="E168" s="0">
+        <v>1</v>
+      </c>
+      <c r="F168" s="0">
+        <v>0.18838540000000137</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>1</v>
+      </c>
+      <c r="B169" s="0">
+        <v>9</v>
+      </c>
+      <c r="C169" s="0">
+        <v>110.9701507</v>
+      </c>
+      <c r="D169" s="0">
+        <v>74</v>
+      </c>
+      <c r="E169" s="0">
+        <v>0</v>
+      </c>
+      <c r="F169" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>1</v>
+      </c>
+      <c r="B170" s="0">
+        <v>9</v>
+      </c>
+      <c r="C170" s="0">
+        <v>111.1577873</v>
+      </c>
+      <c r="D170" s="0">
+        <v>72</v>
+      </c>
+      <c r="E170" s="0">
+        <v>1</v>
+      </c>
+      <c r="F170" s="0">
+        <v>0.18763659999999049</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>1</v>
+      </c>
+      <c r="B171" s="0">
+        <v>9</v>
+      </c>
+      <c r="C171" s="0">
+        <v>111.30119310000001</v>
+      </c>
+      <c r="D171" s="0">
+        <v>72</v>
+      </c>
+      <c r="E171" s="0">
+        <v>0</v>
+      </c>
+      <c r="F171" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>1</v>
+      </c>
+      <c r="B172" s="0">
+        <v>9</v>
+      </c>
+      <c r="C172" s="0">
+        <v>111.76810759999999</v>
+      </c>
+      <c r="D172" s="0">
+        <v>79</v>
+      </c>
+      <c r="E172" s="0">
+        <v>1</v>
+      </c>
+      <c r="F172" s="0">
+        <v>0.46691449999998724</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>1</v>
+      </c>
+      <c r="B173" s="0">
+        <v>9</v>
+      </c>
+      <c r="C173" s="0">
+        <v>111.9139165</v>
+      </c>
+      <c r="D173" s="0">
+        <v>79</v>
+      </c>
+      <c r="E173" s="0">
+        <v>0</v>
+      </c>
+      <c r="F173" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>1</v>
+      </c>
+      <c r="B174" s="0">
+        <v>9</v>
+      </c>
+      <c r="C174" s="0">
+        <v>112.1224945</v>
+      </c>
+      <c r="D174" s="0">
+        <v>77</v>
+      </c>
+      <c r="E174" s="0">
+        <v>1</v>
+      </c>
+      <c r="F174" s="0">
+        <v>0.20857800000000282</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>1</v>
+      </c>
+      <c r="B175" s="0">
+        <v>9</v>
+      </c>
+      <c r="C175" s="0">
+        <v>112.2178412</v>
+      </c>
+      <c r="D175" s="0">
+        <v>77</v>
+      </c>
+      <c r="E175" s="0">
+        <v>0</v>
+      </c>
+      <c r="F175" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>1</v>
+      </c>
+      <c r="B176" s="0">
+        <v>9</v>
+      </c>
+      <c r="C176" s="0">
+        <v>112.4394803</v>
+      </c>
+      <c r="D176" s="0">
+        <v>76</v>
+      </c>
+      <c r="E176" s="0">
+        <v>1</v>
+      </c>
+      <c r="F176" s="0">
+        <v>0.22163910000000442</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>1</v>
+      </c>
+      <c r="B177" s="0">
+        <v>9</v>
+      </c>
+      <c r="C177" s="0">
+        <v>112.5320397</v>
+      </c>
+      <c r="D177" s="0">
+        <v>76</v>
+      </c>
+      <c r="E177" s="0">
+        <v>0</v>
+      </c>
+      <c r="F177" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>1</v>
+      </c>
+      <c r="B178" s="0">
+        <v>9</v>
+      </c>
+      <c r="C178" s="0">
+        <v>112.7284164</v>
+      </c>
+      <c r="D178" s="0">
+        <v>74</v>
+      </c>
+      <c r="E178" s="0">
+        <v>1</v>
+      </c>
+      <c r="F178" s="0">
+        <v>0.19637670000000185</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>1</v>
+      </c>
+      <c r="B179" s="0">
+        <v>9</v>
+      </c>
+      <c r="C179" s="0">
+        <v>112.8547986</v>
+      </c>
+      <c r="D179" s="0">
+        <v>74</v>
+      </c>
+      <c r="E179" s="0">
+        <v>0</v>
+      </c>
+      <c r="F179" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>1</v>
+      </c>
+      <c r="B180" s="0">
+        <v>9</v>
+      </c>
+      <c r="C180" s="0">
+        <v>113.01620990000001</v>
+      </c>
+      <c r="D180" s="0">
+        <v>72</v>
+      </c>
+      <c r="E180" s="0">
+        <v>1</v>
+      </c>
+      <c r="F180" s="0">
+        <v>0.16141130000001169</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>1</v>
+      </c>
+      <c r="B181" s="0">
+        <v>9</v>
+      </c>
+      <c r="C181" s="0">
+        <v>113.17356650000001</v>
+      </c>
+      <c r="D181" s="0">
+        <v>72</v>
+      </c>
+      <c r="E181" s="0">
+        <v>0</v>
+      </c>
+      <c r="F181" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>1</v>
+      </c>
+      <c r="B182" s="0">
+        <v>10</v>
+      </c>
+      <c r="C182" s="0">
+        <v>123.5447604</v>
+      </c>
+      <c r="D182" s="0">
+        <v>79</v>
+      </c>
+      <c r="E182" s="0">
+        <v>1</v>
+      </c>
+      <c r="F182" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>1</v>
+      </c>
+      <c r="B183" s="0">
+        <v>10</v>
+      </c>
+      <c r="C183" s="0">
+        <v>123.7039712</v>
+      </c>
+      <c r="D183" s="0">
+        <v>79</v>
+      </c>
+      <c r="E183" s="0">
+        <v>0</v>
+      </c>
+      <c r="F183" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>1</v>
+      </c>
+      <c r="B184" s="0">
+        <v>10</v>
+      </c>
+      <c r="C184" s="0">
+        <v>123.91225319999999</v>
+      </c>
+      <c r="D184" s="0">
+        <v>77</v>
+      </c>
+      <c r="E184" s="0">
+        <v>1</v>
+      </c>
+      <c r="F184" s="0">
+        <v>0.20828199999999697</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>1</v>
+      </c>
+      <c r="B185" s="0">
+        <v>10</v>
+      </c>
+      <c r="C185" s="0">
+        <v>124.0101706</v>
+      </c>
+      <c r="D185" s="0">
+        <v>77</v>
+      </c>
+      <c r="E185" s="0">
+        <v>0</v>
+      </c>
+      <c r="F185" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>1</v>
+      </c>
+      <c r="B186" s="0">
+        <v>10</v>
+      </c>
+      <c r="C186" s="0">
+        <v>124.23343730000001</v>
+      </c>
+      <c r="D186" s="0">
+        <v>76</v>
+      </c>
+      <c r="E186" s="0">
+        <v>1</v>
+      </c>
+      <c r="F186" s="0">
+        <v>0.22326670000001059</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>1</v>
+      </c>
+      <c r="B187" s="0">
+        <v>10</v>
+      </c>
+      <c r="C187" s="0">
+        <v>124.3309891</v>
+      </c>
+      <c r="D187" s="0">
+        <v>76</v>
+      </c>
+      <c r="E187" s="0">
+        <v>0</v>
+      </c>
+      <c r="F187" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>1</v>
+      </c>
+      <c r="B188" s="0">
+        <v>10</v>
+      </c>
+      <c r="C188" s="0">
+        <v>124.5886386</v>
+      </c>
+      <c r="D188" s="0">
+        <v>74</v>
+      </c>
+      <c r="E188" s="0">
+        <v>1</v>
+      </c>
+      <c r="F188" s="0">
+        <v>0.25764949999999942</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>1</v>
+      </c>
+      <c r="B189" s="0">
+        <v>10</v>
+      </c>
+      <c r="C189" s="0">
+        <v>124.71099049999999</v>
+      </c>
+      <c r="D189" s="0">
+        <v>74</v>
+      </c>
+      <c r="E189" s="0">
+        <v>0</v>
+      </c>
+      <c r="F189" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>1</v>
+      </c>
+      <c r="B190" s="0">
+        <v>10</v>
+      </c>
+      <c r="C190" s="0">
+        <v>124.9496329</v>
+      </c>
+      <c r="D190" s="0">
+        <v>72</v>
+      </c>
+      <c r="E190" s="0">
+        <v>1</v>
+      </c>
+      <c r="F190" s="0">
+        <v>0.23864240000000336</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>1</v>
+      </c>
+      <c r="B191" s="0">
+        <v>10</v>
+      </c>
+      <c r="C191" s="0">
+        <v>125.0977606</v>
+      </c>
+      <c r="D191" s="0">
+        <v>72</v>
+      </c>
+      <c r="E191" s="0">
+        <v>0</v>
+      </c>
+      <c r="F191" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>1</v>
+      </c>
+      <c r="B192" s="0">
+        <v>10</v>
+      </c>
+      <c r="C192" s="0">
+        <v>125.59217460000001</v>
+      </c>
+      <c r="D192" s="0">
+        <v>79</v>
+      </c>
+      <c r="E192" s="0">
+        <v>1</v>
+      </c>
+      <c r="F192" s="0">
+        <v>0.49441400000000613</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>1</v>
+      </c>
+      <c r="B193" s="0">
+        <v>10</v>
+      </c>
+      <c r="C193" s="0">
+        <v>125.7477864</v>
+      </c>
+      <c r="D193" s="0">
+        <v>79</v>
+      </c>
+      <c r="E193" s="0">
+        <v>0</v>
+      </c>
+      <c r="F193" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>1</v>
+      </c>
+      <c r="B194" s="0">
+        <v>10</v>
+      </c>
+      <c r="C194" s="0">
+        <v>125.9621377</v>
+      </c>
+      <c r="D194" s="0">
+        <v>77</v>
+      </c>
+      <c r="E194" s="0">
+        <v>1</v>
+      </c>
+      <c r="F194" s="0">
+        <v>0.21435130000000413</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>1</v>
+      </c>
+      <c r="B195" s="0">
+        <v>10</v>
+      </c>
+      <c r="C195" s="0">
+        <v>126.0857554</v>
+      </c>
+      <c r="D195" s="0">
+        <v>77</v>
+      </c>
+      <c r="E195" s="0">
+        <v>0</v>
+      </c>
+      <c r="F195" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>1</v>
+      </c>
+      <c r="B196" s="0">
+        <v>10</v>
+      </c>
+      <c r="C196" s="0">
+        <v>126.307777</v>
+      </c>
+      <c r="D196" s="0">
+        <v>76</v>
+      </c>
+      <c r="E196" s="0">
+        <v>1</v>
+      </c>
+      <c r="F196" s="0">
+        <v>0.22202160000000504</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>1</v>
+      </c>
+      <c r="B197" s="0">
+        <v>10</v>
+      </c>
+      <c r="C197" s="0">
+        <v>126.4162989</v>
+      </c>
+      <c r="D197" s="0">
+        <v>76</v>
+      </c>
+      <c r="E197" s="0">
+        <v>0</v>
+      </c>
+      <c r="F197" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>1</v>
+      </c>
+      <c r="B198" s="0">
+        <v>10</v>
+      </c>
+      <c r="C198" s="0">
+        <v>126.6749117</v>
+      </c>
+      <c r="D198" s="0">
+        <v>74</v>
+      </c>
+      <c r="E198" s="0">
+        <v>1</v>
+      </c>
+      <c r="F198" s="0">
+        <v>0.25861279999999454</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>1</v>
+      </c>
+      <c r="B199" s="0">
+        <v>10</v>
+      </c>
+      <c r="C199" s="0">
+        <v>126.7808665</v>
+      </c>
+      <c r="D199" s="0">
+        <v>74</v>
+      </c>
+      <c r="E199" s="0">
+        <v>0</v>
+      </c>
+      <c r="F199" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>1</v>
+      </c>
+      <c r="B200" s="0">
+        <v>10</v>
+      </c>
+      <c r="C200" s="0">
+        <v>127.0580508</v>
+      </c>
+      <c r="D200" s="0">
+        <v>72</v>
+      </c>
+      <c r="E200" s="0">
+        <v>1</v>
+      </c>
+      <c r="F200" s="0">
+        <v>0.27718430000000183</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>1</v>
+      </c>
+      <c r="B201" s="0">
+        <v>10</v>
+      </c>
+      <c r="C201" s="0">
+        <v>127.16859220000001</v>
+      </c>
+      <c r="D201" s="0">
+        <v>72</v>
+      </c>
+      <c r="E201" s="0">
+        <v>0</v>
+      </c>
+      <c r="F201" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>1</v>
+      </c>
+      <c r="B202" s="0">
+        <v>11</v>
+      </c>
+      <c r="C202" s="0">
+        <v>136.08657489999999</v>
+      </c>
+      <c r="D202" s="0">
+        <v>79</v>
+      </c>
+      <c r="E202" s="0">
+        <v>1</v>
+      </c>
+      <c r="F202" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>1</v>
+      </c>
+      <c r="B203" s="0">
+        <v>11</v>
+      </c>
+      <c r="C203" s="0">
+        <v>136.2571926</v>
+      </c>
+      <c r="D203" s="0">
+        <v>79</v>
+      </c>
+      <c r="E203" s="0">
+        <v>0</v>
+      </c>
+      <c r="F203" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>1</v>
+      </c>
+      <c r="B204" s="0">
+        <v>11</v>
+      </c>
+      <c r="C204" s="0">
+        <v>136.5295485</v>
+      </c>
+      <c r="D204" s="0">
+        <v>77</v>
+      </c>
+      <c r="E204" s="0">
+        <v>1</v>
+      </c>
+      <c r="F204" s="0">
+        <v>0.27235590000000798</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>1</v>
+      </c>
+      <c r="B205" s="0">
+        <v>11</v>
+      </c>
+      <c r="C205" s="0">
+        <v>136.65642399999999</v>
+      </c>
+      <c r="D205" s="0">
+        <v>77</v>
+      </c>
+      <c r="E205" s="0">
+        <v>0</v>
+      </c>
+      <c r="F205" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>1</v>
+      </c>
+      <c r="B206" s="0">
+        <v>11</v>
+      </c>
+      <c r="C206" s="0">
+        <v>136.9014823</v>
+      </c>
+      <c r="D206" s="0">
+        <v>76</v>
+      </c>
+      <c r="E206" s="0">
+        <v>1</v>
+      </c>
+      <c r="F206" s="0">
+        <v>0.24505830000001083</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>1</v>
+      </c>
+      <c r="B207" s="0">
+        <v>11</v>
+      </c>
+      <c r="C207" s="0">
+        <v>137.0122925</v>
+      </c>
+      <c r="D207" s="0">
+        <v>76</v>
+      </c>
+      <c r="E207" s="0">
+        <v>0</v>
+      </c>
+      <c r="F207" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>1</v>
+      </c>
+      <c r="B208" s="0">
+        <v>11</v>
+      </c>
+      <c r="C208" s="0">
+        <v>137.2661808</v>
+      </c>
+      <c r="D208" s="0">
+        <v>74</v>
+      </c>
+      <c r="E208" s="0">
+        <v>1</v>
+      </c>
+      <c r="F208" s="0">
+        <v>0.25388829999999984</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>1</v>
+      </c>
+      <c r="B209" s="0">
+        <v>11</v>
+      </c>
+      <c r="C209" s="0">
+        <v>137.3780883</v>
+      </c>
+      <c r="D209" s="0">
+        <v>74</v>
+      </c>
+      <c r="E209" s="0">
+        <v>0</v>
+      </c>
+      <c r="F209" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>1</v>
+      </c>
+      <c r="B210" s="0">
+        <v>11</v>
+      </c>
+      <c r="C210" s="0">
+        <v>137.68455850000001</v>
+      </c>
+      <c r="D210" s="0">
+        <v>72</v>
+      </c>
+      <c r="E210" s="0">
+        <v>1</v>
+      </c>
+      <c r="F210" s="0">
+        <v>0.3064702000000068</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>1</v>
+      </c>
+      <c r="B211" s="0">
+        <v>11</v>
+      </c>
+      <c r="C211" s="0">
+        <v>137.80678789999999</v>
+      </c>
+      <c r="D211" s="0">
+        <v>72</v>
+      </c>
+      <c r="E211" s="0">
+        <v>0</v>
+      </c>
+      <c r="F211" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>1</v>
+      </c>
+      <c r="B212" s="0">
+        <v>11</v>
+      </c>
+      <c r="C212" s="0">
+        <v>138.44470150000001</v>
+      </c>
+      <c r="D212" s="0">
+        <v>79</v>
+      </c>
+      <c r="E212" s="0">
+        <v>1</v>
+      </c>
+      <c r="F212" s="0">
+        <v>0.63791360000001873</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>1</v>
+      </c>
+      <c r="B213" s="0">
+        <v>11</v>
+      </c>
+      <c r="C213" s="0">
+        <v>138.57541280000001</v>
+      </c>
+      <c r="D213" s="0">
+        <v>79</v>
+      </c>
+      <c r="E213" s="0">
+        <v>0</v>
+      </c>
+      <c r="F213" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>1</v>
+      </c>
+      <c r="B214" s="0">
+        <v>11</v>
+      </c>
+      <c r="C214" s="0">
+        <v>138.81153499999999</v>
+      </c>
+      <c r="D214" s="0">
+        <v>77</v>
+      </c>
+      <c r="E214" s="0">
+        <v>1</v>
+      </c>
+      <c r="F214" s="0">
+        <v>0.23612219999998274</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>1</v>
+      </c>
+      <c r="B215" s="0">
+        <v>11</v>
+      </c>
+      <c r="C215" s="0">
+        <v>138.92211599999999</v>
+      </c>
+      <c r="D215" s="0">
+        <v>77</v>
+      </c>
+      <c r="E215" s="0">
+        <v>0</v>
+      </c>
+      <c r="F215" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>1</v>
+      </c>
+      <c r="B216" s="0">
+        <v>11</v>
+      </c>
+      <c r="C216" s="0">
+        <v>139.16499540000001</v>
+      </c>
+      <c r="D216" s="0">
+        <v>76</v>
+      </c>
+      <c r="E216" s="0">
+        <v>1</v>
+      </c>
+      <c r="F216" s="0">
+        <v>0.24287940000002095</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>1</v>
+      </c>
+      <c r="B217" s="0">
+        <v>11</v>
+      </c>
+      <c r="C217" s="0">
+        <v>139.2739756</v>
+      </c>
+      <c r="D217" s="0">
+        <v>76</v>
+      </c>
+      <c r="E217" s="0">
+        <v>0</v>
+      </c>
+      <c r="F217" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>1</v>
+      </c>
+      <c r="B218" s="0">
+        <v>11</v>
+      </c>
+      <c r="C218" s="0">
+        <v>139.51708210000001</v>
+      </c>
+      <c r="D218" s="0">
+        <v>74</v>
+      </c>
+      <c r="E218" s="0">
+        <v>1</v>
+      </c>
+      <c r="F218" s="0">
+        <v>0.24310650000001033</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>1</v>
+      </c>
+      <c r="B219" s="0">
+        <v>11</v>
+      </c>
+      <c r="C219" s="0">
+        <v>139.62902020000001</v>
+      </c>
+      <c r="D219" s="0">
+        <v>74</v>
+      </c>
+      <c r="E219" s="0">
+        <v>0</v>
+      </c>
+      <c r="F219" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>1</v>
+      </c>
+      <c r="B220" s="0">
+        <v>11</v>
+      </c>
+      <c r="C220" s="0">
+        <v>139.9973756</v>
+      </c>
+      <c r="D220" s="0">
+        <v>72</v>
+      </c>
+      <c r="E220" s="0">
+        <v>1</v>
+      </c>
+      <c r="F220" s="0">
+        <v>0.36835539999998446</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>1</v>
+      </c>
+      <c r="B221" s="0">
+        <v>11</v>
+      </c>
+      <c r="C221" s="0">
+        <v>140.12415590000001</v>
+      </c>
+      <c r="D221" s="0">
+        <v>72</v>
+      </c>
+      <c r="E221" s="0">
+        <v>0</v>
+      </c>
+      <c r="F221" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>1</v>
+      </c>
+      <c r="B222" s="0">
+        <v>12</v>
+      </c>
+      <c r="C222" s="0">
+        <v>148.90692799999999</v>
+      </c>
+      <c r="D222" s="0">
+        <v>79</v>
+      </c>
+      <c r="E222" s="0">
+        <v>1</v>
+      </c>
+      <c r="F222" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>1</v>
+      </c>
+      <c r="B223" s="0">
+        <v>12</v>
+      </c>
+      <c r="C223" s="0">
+        <v>149.0679007</v>
+      </c>
+      <c r="D223" s="0">
+        <v>79</v>
+      </c>
+      <c r="E223" s="0">
+        <v>0</v>
+      </c>
+      <c r="F223" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>1</v>
+      </c>
+      <c r="B224" s="0">
+        <v>12</v>
+      </c>
+      <c r="C224" s="0">
+        <v>149.2776858</v>
+      </c>
+      <c r="D224" s="0">
+        <v>77</v>
+      </c>
+      <c r="E224" s="0">
+        <v>1</v>
+      </c>
+      <c r="F224" s="0">
+        <v>0.20978510000000483</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>1</v>
+      </c>
+      <c r="B225" s="0">
+        <v>12</v>
+      </c>
+      <c r="C225" s="0">
+        <v>149.3866002</v>
+      </c>
+      <c r="D225" s="0">
+        <v>77</v>
+      </c>
+      <c r="E225" s="0">
+        <v>0</v>
+      </c>
+      <c r="F225" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>1</v>
+      </c>
+      <c r="B226" s="0">
+        <v>12</v>
+      </c>
+      <c r="C226" s="0">
+        <v>149.60782069999999</v>
+      </c>
+      <c r="D226" s="0">
+        <v>76</v>
+      </c>
+      <c r="E226" s="0">
+        <v>1</v>
+      </c>
+      <c r="F226" s="0">
+        <v>0.22122049999998694</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>1</v>
+      </c>
+      <c r="B227" s="0">
+        <v>12</v>
+      </c>
+      <c r="C227" s="0">
+        <v>149.70359970000001</v>
+      </c>
+      <c r="D227" s="0">
+        <v>76</v>
+      </c>
+      <c r="E227" s="0">
+        <v>0</v>
+      </c>
+      <c r="F227" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>1</v>
+      </c>
+      <c r="B228" s="0">
+        <v>12</v>
+      </c>
+      <c r="C228" s="0">
+        <v>149.93312019999999</v>
+      </c>
+      <c r="D228" s="0">
+        <v>74</v>
+      </c>
+      <c r="E228" s="0">
+        <v>1</v>
+      </c>
+      <c r="F228" s="0">
+        <v>0.22952049999997826</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>1</v>
+      </c>
+      <c r="B229" s="0">
+        <v>12</v>
+      </c>
+      <c r="C229" s="0">
+        <v>150.02773790000001</v>
+      </c>
+      <c r="D229" s="0">
+        <v>74</v>
+      </c>
+      <c r="E229" s="0">
+        <v>0</v>
+      </c>
+      <c r="F229" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>1</v>
+      </c>
+      <c r="B230" s="0">
+        <v>12</v>
+      </c>
+      <c r="C230" s="0">
+        <v>150.20396840000001</v>
+      </c>
+      <c r="D230" s="0">
+        <v>72</v>
+      </c>
+      <c r="E230" s="0">
+        <v>1</v>
+      </c>
+      <c r="F230" s="0">
+        <v>0.17623050000000262</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>1</v>
+      </c>
+      <c r="B231" s="0">
+        <v>12</v>
+      </c>
+      <c r="C231" s="0">
+        <v>150.37624769999999</v>
+      </c>
+      <c r="D231" s="0">
+        <v>72</v>
+      </c>
+      <c r="E231" s="0">
+        <v>0</v>
+      </c>
+      <c r="F231" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>1</v>
+      </c>
+      <c r="B232" s="0">
+        <v>12</v>
+      </c>
+      <c r="C232" s="0">
+        <v>150.83966849999999</v>
+      </c>
+      <c r="D232" s="0">
+        <v>79</v>
+      </c>
+      <c r="E232" s="0">
+        <v>1</v>
+      </c>
+      <c r="F232" s="0">
+        <v>0.46342079999999441</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>1</v>
+      </c>
+      <c r="B233" s="0">
+        <v>12</v>
+      </c>
+      <c r="C233" s="0">
+        <v>150.98172389999999</v>
+      </c>
+      <c r="D233" s="0">
+        <v>79</v>
+      </c>
+      <c r="E233" s="0">
+        <v>0</v>
+      </c>
+      <c r="F233" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>1</v>
+      </c>
+      <c r="B234" s="0">
+        <v>12</v>
+      </c>
+      <c r="C234" s="0">
+        <v>151.22162660000001</v>
+      </c>
+      <c r="D234" s="0">
+        <v>77</v>
+      </c>
+      <c r="E234" s="0">
+        <v>1</v>
+      </c>
+      <c r="F234" s="0">
+        <v>0.23990270000001601</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>1</v>
+      </c>
+      <c r="B235" s="0">
+        <v>12</v>
+      </c>
+      <c r="C235" s="0">
+        <v>151.3329359</v>
+      </c>
+      <c r="D235" s="0">
+        <v>77</v>
+      </c>
+      <c r="E235" s="0">
+        <v>0</v>
+      </c>
+      <c r="F235" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>1</v>
+      </c>
+      <c r="B236" s="0">
+        <v>12</v>
+      </c>
+      <c r="C236" s="0">
+        <v>151.56273039999999</v>
+      </c>
+      <c r="D236" s="0">
+        <v>76</v>
+      </c>
+      <c r="E236" s="0">
+        <v>1</v>
+      </c>
+      <c r="F236" s="0">
+        <v>0.22979449999999702</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>1</v>
+      </c>
+      <c r="B237" s="0">
+        <v>12</v>
+      </c>
+      <c r="C237" s="0">
+        <v>151.68418130000001</v>
+      </c>
+      <c r="D237" s="0">
+        <v>76</v>
+      </c>
+      <c r="E237" s="0">
+        <v>0</v>
+      </c>
+      <c r="F237" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>1</v>
+      </c>
+      <c r="B238" s="0">
+        <v>12</v>
+      </c>
+      <c r="C238" s="0">
+        <v>151.91382279999999</v>
+      </c>
+      <c r="D238" s="0">
+        <v>74</v>
+      </c>
+      <c r="E238" s="0">
+        <v>1</v>
+      </c>
+      <c r="F238" s="0">
+        <v>0.2296414999999854</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>1</v>
+      </c>
+      <c r="B239" s="0">
+        <v>12</v>
+      </c>
+      <c r="C239" s="0">
+        <v>152.04012610000001</v>
+      </c>
+      <c r="D239" s="0">
+        <v>74</v>
+      </c>
+      <c r="E239" s="0">
+        <v>0</v>
+      </c>
+      <c r="F239" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>1</v>
+      </c>
+      <c r="B240" s="0">
+        <v>12</v>
+      </c>
+      <c r="C240" s="0">
+        <v>152.2662282</v>
+      </c>
+      <c r="D240" s="0">
+        <v>72</v>
+      </c>
+      <c r="E240" s="0">
+        <v>1</v>
+      </c>
+      <c r="F240" s="0">
+        <v>0.22610209999999142</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>1</v>
+      </c>
+      <c r="B241" s="0">
+        <v>12</v>
+      </c>
+      <c r="C241" s="0">
+        <v>152.38982870000001</v>
+      </c>
+      <c r="D241" s="0">
+        <v>72</v>
+      </c>
+      <c r="E241" s="0">
+        <v>0</v>
+      </c>
+      <c r="F241" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>1</v>
+      </c>
+      <c r="B242" s="0">
+        <v>13</v>
+      </c>
+      <c r="C242" s="0">
+        <v>161.7137784</v>
+      </c>
+      <c r="D242" s="0">
+        <v>79</v>
+      </c>
+      <c r="E242" s="0">
+        <v>1</v>
+      </c>
+      <c r="F242" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>1</v>
+      </c>
+      <c r="B243" s="0">
+        <v>13</v>
+      </c>
+      <c r="C243" s="0">
+        <v>161.86861529999999</v>
+      </c>
+      <c r="D243" s="0">
+        <v>79</v>
+      </c>
+      <c r="E243" s="0">
+        <v>0</v>
+      </c>
+      <c r="F243" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>1</v>
+      </c>
+      <c r="B244" s="0">
+        <v>13</v>
+      </c>
+      <c r="C244" s="0">
+        <v>162.09752019999999</v>
+      </c>
+      <c r="D244" s="0">
+        <v>77</v>
+      </c>
+      <c r="E244" s="0">
+        <v>1</v>
+      </c>
+      <c r="F244" s="0">
+        <v>0.22890490000000341</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>1</v>
+      </c>
+      <c r="B245" s="0">
+        <v>13</v>
+      </c>
+      <c r="C245" s="0">
+        <v>162.20589150000001</v>
+      </c>
+      <c r="D245" s="0">
+        <v>77</v>
+      </c>
+      <c r="E245" s="0">
+        <v>0</v>
+      </c>
+      <c r="F245" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>1</v>
+      </c>
+      <c r="B246" s="0">
+        <v>13</v>
+      </c>
+      <c r="C246" s="0">
+        <v>162.4438859</v>
+      </c>
+      <c r="D246" s="0">
+        <v>76</v>
+      </c>
+      <c r="E246" s="0">
+        <v>1</v>
+      </c>
+      <c r="F246" s="0">
+        <v>0.23799439999999095</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>1</v>
+      </c>
+      <c r="B247" s="0">
+        <v>13</v>
+      </c>
+      <c r="C247" s="0">
+        <v>162.55708809999999</v>
+      </c>
+      <c r="D247" s="0">
+        <v>76</v>
+      </c>
+      <c r="E247" s="0">
+        <v>0</v>
+      </c>
+      <c r="F247" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>1</v>
+      </c>
+      <c r="B248" s="0">
+        <v>13</v>
+      </c>
+      <c r="C248" s="0">
+        <v>162.78470970000001</v>
+      </c>
+      <c r="D248" s="0">
+        <v>74</v>
+      </c>
+      <c r="E248" s="0">
+        <v>1</v>
+      </c>
+      <c r="F248" s="0">
+        <v>0.22762160000002041</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>1</v>
+      </c>
+      <c r="B249" s="0">
+        <v>13</v>
+      </c>
+      <c r="C249" s="0">
+        <v>162.92735020000001</v>
+      </c>
+      <c r="D249" s="0">
+        <v>74</v>
+      </c>
+      <c r="E249" s="0">
+        <v>0</v>
+      </c>
+      <c r="F249" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>1</v>
+      </c>
+      <c r="B250" s="0">
+        <v>13</v>
+      </c>
+      <c r="C250" s="0">
+        <v>163.15144169999999</v>
+      </c>
+      <c r="D250" s="0">
+        <v>72</v>
+      </c>
+      <c r="E250" s="0">
+        <v>1</v>
+      </c>
+      <c r="F250" s="0">
+        <v>0.2240914999999859</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>1</v>
+      </c>
+      <c r="B251" s="0">
+        <v>13</v>
+      </c>
+      <c r="C251" s="0">
+        <v>163.2746483</v>
+      </c>
+      <c r="D251" s="0">
+        <v>72</v>
+      </c>
+      <c r="E251" s="0">
+        <v>0</v>
+      </c>
+      <c r="F251" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>1</v>
+      </c>
+      <c r="B252" s="0">
+        <v>13</v>
+      </c>
+      <c r="C252" s="0">
+        <v>163.7734571</v>
+      </c>
+      <c r="D252" s="0">
+        <v>79</v>
+      </c>
+      <c r="E252" s="0">
+        <v>1</v>
+      </c>
+      <c r="F252" s="0">
+        <v>0.49880880000000616</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>1</v>
+      </c>
+      <c r="B253" s="0">
+        <v>13</v>
+      </c>
+      <c r="C253" s="0">
+        <v>163.91287850000001</v>
+      </c>
+      <c r="D253" s="0">
+        <v>79</v>
+      </c>
+      <c r="E253" s="0">
+        <v>0</v>
+      </c>
+      <c r="F253" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>1</v>
+      </c>
+      <c r="B254" s="0">
+        <v>13</v>
+      </c>
+      <c r="C254" s="0">
+        <v>164.31431860000001</v>
+      </c>
+      <c r="D254" s="0">
+        <v>77</v>
+      </c>
+      <c r="E254" s="0">
+        <v>1</v>
+      </c>
+      <c r="F254" s="0">
+        <v>0.40144010000000208</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>1</v>
+      </c>
+      <c r="B255" s="0">
+        <v>13</v>
+      </c>
+      <c r="C255" s="0">
+        <v>164.4241079</v>
+      </c>
+      <c r="D255" s="0">
+        <v>77</v>
+      </c>
+      <c r="E255" s="0">
+        <v>0</v>
+      </c>
+      <c r="F255" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>1</v>
+      </c>
+      <c r="B256" s="0">
+        <v>13</v>
+      </c>
+      <c r="C256" s="0">
+        <v>164.70033760000001</v>
+      </c>
+      <c r="D256" s="0">
+        <v>76</v>
+      </c>
+      <c r="E256" s="0">
+        <v>1</v>
+      </c>
+      <c r="F256" s="0">
+        <v>0.27622970000001601</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>1</v>
+      </c>
+      <c r="B257" s="0">
+        <v>13</v>
+      </c>
+      <c r="C257" s="0">
+        <v>164.81080439999999</v>
+      </c>
+      <c r="D257" s="0">
+        <v>76</v>
+      </c>
+      <c r="E257" s="0">
+        <v>0</v>
+      </c>
+      <c r="F257" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>1</v>
+      </c>
+      <c r="B258" s="0">
+        <v>13</v>
+      </c>
+      <c r="C258" s="0">
+        <v>165.08920850000001</v>
+      </c>
+      <c r="D258" s="0">
+        <v>74</v>
+      </c>
+      <c r="E258" s="0">
+        <v>1</v>
+      </c>
+      <c r="F258" s="0">
+        <v>0.27840410000001725</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>1</v>
+      </c>
+      <c r="B259" s="0">
+        <v>13</v>
+      </c>
+      <c r="C259" s="0">
+        <v>165.22507920000001</v>
+      </c>
+      <c r="D259" s="0">
+        <v>74</v>
+      </c>
+      <c r="E259" s="0">
+        <v>0</v>
+      </c>
+      <c r="F259" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>1</v>
+      </c>
+      <c r="B260" s="0">
+        <v>13</v>
+      </c>
+      <c r="C260" s="0">
+        <v>165.51494600000001</v>
+      </c>
+      <c r="D260" s="0">
+        <v>72</v>
+      </c>
+      <c r="E260" s="0">
+        <v>1</v>
+      </c>
+      <c r="F260" s="0">
+        <v>0.28986679999999865</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>1</v>
+      </c>
+      <c r="B261" s="0">
+        <v>13</v>
+      </c>
+      <c r="C261" s="0">
+        <v>165.62211830000001</v>
+      </c>
+      <c r="D261" s="0">
+        <v>72</v>
+      </c>
+      <c r="E261" s="0">
+        <v>0</v>
+      </c>
+      <c r="F261" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>1</v>
+      </c>
+      <c r="B262" s="0">
+        <v>14</v>
+      </c>
+      <c r="C262" s="0">
+        <v>174.6154373</v>
+      </c>
+      <c r="D262" s="0">
+        <v>79</v>
+      </c>
+      <c r="E262" s="0">
+        <v>1</v>
+      </c>
+      <c r="F262" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>1</v>
+      </c>
+      <c r="B263" s="0">
+        <v>14</v>
+      </c>
+      <c r="C263" s="0">
+        <v>174.77460289999999</v>
+      </c>
+      <c r="D263" s="0">
+        <v>79</v>
+      </c>
+      <c r="E263" s="0">
+        <v>0</v>
+      </c>
+      <c r="F263" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>1</v>
+      </c>
+      <c r="B264" s="0">
+        <v>14</v>
+      </c>
+      <c r="C264" s="0">
+        <v>175.07422629999999</v>
+      </c>
+      <c r="D264" s="0">
+        <v>77</v>
+      </c>
+      <c r="E264" s="0">
+        <v>1</v>
+      </c>
+      <c r="F264" s="0">
+        <v>0.29962340000000154</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>1</v>
+      </c>
+      <c r="B265" s="0">
+        <v>14</v>
+      </c>
+      <c r="C265" s="0">
+        <v>175.12219450000001</v>
+      </c>
+      <c r="D265" s="0">
+        <v>77</v>
+      </c>
+      <c r="E265" s="0">
+        <v>0</v>
+      </c>
+      <c r="F265" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>1</v>
+      </c>
+      <c r="B266" s="0">
+        <v>14</v>
+      </c>
+      <c r="C266" s="0">
+        <v>175.6680461</v>
+      </c>
+      <c r="D266" s="0">
+        <v>76</v>
+      </c>
+      <c r="E266" s="0">
+        <v>1</v>
+      </c>
+      <c r="F266" s="0">
+        <v>0.54585159999999178</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>1</v>
+      </c>
+      <c r="B267" s="0">
+        <v>14</v>
+      </c>
+      <c r="C267" s="0">
+        <v>175.76326030000001</v>
+      </c>
+      <c r="D267" s="0">
+        <v>76</v>
+      </c>
+      <c r="E267" s="0">
+        <v>0</v>
+      </c>
+      <c r="F267" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>1</v>
+      </c>
+      <c r="B268" s="0">
+        <v>14</v>
+      </c>
+      <c r="C268" s="0">
+        <v>176.07086469999999</v>
+      </c>
+      <c r="D268" s="0">
+        <v>74</v>
+      </c>
+      <c r="E268" s="0">
+        <v>1</v>
+      </c>
+      <c r="F268" s="0">
+        <v>0.30760439999997402</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>1</v>
+      </c>
+      <c r="B269" s="0">
+        <v>14</v>
+      </c>
+      <c r="C269" s="0">
+        <v>176.18095349999999</v>
+      </c>
+      <c r="D269" s="0">
+        <v>74</v>
+      </c>
+      <c r="E269" s="0">
+        <v>0</v>
+      </c>
+      <c r="F269" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>1</v>
+      </c>
+      <c r="B270" s="0">
+        <v>14</v>
+      </c>
+      <c r="C270" s="0">
+        <v>176.4690578</v>
+      </c>
+      <c r="D270" s="0">
+        <v>72</v>
+      </c>
+      <c r="E270" s="0">
+        <v>1</v>
+      </c>
+      <c r="F270" s="0">
+        <v>0.28810430000001475</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>1</v>
+      </c>
+      <c r="B271" s="0">
+        <v>14</v>
+      </c>
+      <c r="C271" s="0">
+        <v>176.5920141</v>
+      </c>
+      <c r="D271" s="0">
+        <v>72</v>
+      </c>
+      <c r="E271" s="0">
+        <v>0</v>
+      </c>
+      <c r="F271" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>1</v>
+      </c>
+      <c r="B272" s="0">
+        <v>14</v>
+      </c>
+      <c r="C272" s="0">
+        <v>176.97539380000001</v>
+      </c>
+      <c r="D272" s="0">
+        <v>79</v>
+      </c>
+      <c r="E272" s="0">
+        <v>1</v>
+      </c>
+      <c r="F272" s="0">
+        <v>0.3833797000000061</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>1</v>
+      </c>
+      <c r="B273" s="0">
+        <v>14</v>
+      </c>
+      <c r="C273" s="0">
+        <v>177.11640130000001</v>
+      </c>
+      <c r="D273" s="0">
+        <v>79</v>
+      </c>
+      <c r="E273" s="0">
+        <v>0</v>
+      </c>
+      <c r="F273" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>1</v>
+      </c>
+      <c r="B274" s="0">
+        <v>14</v>
+      </c>
+      <c r="C274" s="0">
+        <v>177.35808969999999</v>
+      </c>
+      <c r="D274" s="0">
+        <v>77</v>
+      </c>
+      <c r="E274" s="0">
+        <v>1</v>
+      </c>
+      <c r="F274" s="0">
+        <v>0.24168839999998681</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>1</v>
+      </c>
+      <c r="B275" s="0">
+        <v>14</v>
+      </c>
+      <c r="C275" s="0">
+        <v>177.46754150000001</v>
+      </c>
+      <c r="D275" s="0">
+        <v>77</v>
+      </c>
+      <c r="E275" s="0">
+        <v>0</v>
+      </c>
+      <c r="F275" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>1</v>
+      </c>
+      <c r="B276" s="0">
+        <v>14</v>
+      </c>
+      <c r="C276" s="0">
+        <v>177.73857910000001</v>
+      </c>
+      <c r="D276" s="0">
+        <v>76</v>
+      </c>
+      <c r="E276" s="0">
+        <v>1</v>
+      </c>
+      <c r="F276" s="0">
+        <v>0.27103759999999966</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>1</v>
+      </c>
+      <c r="B277" s="0">
+        <v>14</v>
+      </c>
+      <c r="C277" s="0">
+        <v>177.86547160000001</v>
+      </c>
+      <c r="D277" s="0">
+        <v>76</v>
+      </c>
+      <c r="E277" s="0">
+        <v>0</v>
+      </c>
+      <c r="F277" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>1</v>
+      </c>
+      <c r="B278" s="0">
+        <v>14</v>
+      </c>
+      <c r="C278" s="0">
+        <v>178.10689769999999</v>
+      </c>
+      <c r="D278" s="0">
+        <v>74</v>
+      </c>
+      <c r="E278" s="0">
+        <v>1</v>
+      </c>
+      <c r="F278" s="0">
+        <v>0.24142609999998399</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>1</v>
+      </c>
+      <c r="B279" s="0">
+        <v>14</v>
+      </c>
+      <c r="C279" s="0">
+        <v>178.2308644</v>
+      </c>
+      <c r="D279" s="0">
+        <v>74</v>
+      </c>
+      <c r="E279" s="0">
+        <v>0</v>
+      </c>
+      <c r="F279" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>1</v>
+      </c>
+      <c r="B280" s="0">
+        <v>14</v>
+      </c>
+      <c r="C280" s="0">
+        <v>178.50054259999999</v>
+      </c>
+      <c r="D280" s="0">
+        <v>72</v>
+      </c>
+      <c r="E280" s="0">
+        <v>1</v>
+      </c>
+      <c r="F280" s="0">
+        <v>0.2696781999999871</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>1</v>
+      </c>
+      <c r="B281" s="0">
+        <v>14</v>
+      </c>
+      <c r="C281" s="0">
+        <v>178.6280783</v>
+      </c>
+      <c r="D281" s="0">
+        <v>72</v>
+      </c>
+      <c r="E281" s="0">
+        <v>0</v>
+      </c>
+      <c r="F281" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>1</v>
+      </c>
+      <c r="B282" s="0">
+        <v>15</v>
+      </c>
+      <c r="C282" s="0">
+        <v>187.63717120000001</v>
+      </c>
+      <c r="D282" s="0">
+        <v>79</v>
+      </c>
+      <c r="E282" s="0">
+        <v>1</v>
+      </c>
+      <c r="F282" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>1</v>
+      </c>
+      <c r="B283" s="0">
+        <v>15</v>
+      </c>
+      <c r="C283" s="0">
+        <v>187.81484760000001</v>
+      </c>
+      <c r="D283" s="0">
+        <v>79</v>
+      </c>
+      <c r="E283" s="0">
+        <v>0</v>
+      </c>
+      <c r="F283" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>1</v>
+      </c>
+      <c r="B284" s="0">
+        <v>15</v>
+      </c>
+      <c r="C284" s="0">
+        <v>188.03445869999999</v>
+      </c>
+      <c r="D284" s="0">
+        <v>77</v>
+      </c>
+      <c r="E284" s="0">
+        <v>1</v>
+      </c>
+      <c r="F284" s="0">
+        <v>0.2196110999999803</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>1</v>
+      </c>
+      <c r="B285" s="0">
+        <v>15</v>
+      </c>
+      <c r="C285" s="0">
+        <v>188.1330863</v>
+      </c>
+      <c r="D285" s="0">
+        <v>77</v>
+      </c>
+      <c r="E285" s="0">
+        <v>0</v>
+      </c>
+      <c r="F285" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>1</v>
+      </c>
+      <c r="B286" s="0">
+        <v>15</v>
+      </c>
+      <c r="C286" s="0">
+        <v>188.4221713</v>
+      </c>
+      <c r="D286" s="0">
+        <v>76</v>
+      </c>
+      <c r="E286" s="0">
+        <v>1</v>
+      </c>
+      <c r="F286" s="0">
+        <v>0.28908500000000004</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>1</v>
+      </c>
+      <c r="B287" s="0">
+        <v>15</v>
+      </c>
+      <c r="C287" s="0">
+        <v>188.49900740000001</v>
+      </c>
+      <c r="D287" s="0">
+        <v>76</v>
+      </c>
+      <c r="E287" s="0">
+        <v>0</v>
+      </c>
+      <c r="F287" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>1</v>
+      </c>
+      <c r="B288" s="0">
+        <v>15</v>
+      </c>
+      <c r="C288" s="0">
+        <v>188.71733829999999</v>
+      </c>
+      <c r="D288" s="0">
+        <v>74</v>
+      </c>
+      <c r="E288" s="0">
+        <v>1</v>
+      </c>
+      <c r="F288" s="0">
+        <v>0.21833089999998379</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>1</v>
+      </c>
+      <c r="B289" s="0">
+        <v>15</v>
+      </c>
+      <c r="C289" s="0">
+        <v>188.84539290000001</v>
+      </c>
+      <c r="D289" s="0">
+        <v>74</v>
+      </c>
+      <c r="E289" s="0">
+        <v>0</v>
+      </c>
+      <c r="F289" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>1</v>
+      </c>
+      <c r="B290" s="0">
+        <v>15</v>
+      </c>
+      <c r="C290" s="0">
+        <v>189.08742749999999</v>
+      </c>
+      <c r="D290" s="0">
+        <v>72</v>
+      </c>
+      <c r="E290" s="0">
+        <v>1</v>
+      </c>
+      <c r="F290" s="0">
+        <v>0.24203459999998245</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>1</v>
+      </c>
+      <c r="B291" s="0">
+        <v>15</v>
+      </c>
+      <c r="C291" s="0">
+        <v>189.20874509999999</v>
+      </c>
+      <c r="D291" s="0">
+        <v>72</v>
+      </c>
+      <c r="E291" s="0">
+        <v>0</v>
+      </c>
+      <c r="F291" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>1</v>
+      </c>
+      <c r="B292" s="0">
+        <v>15</v>
+      </c>
+      <c r="C292" s="0">
+        <v>189.65669370000001</v>
+      </c>
+      <c r="D292" s="0">
+        <v>79</v>
+      </c>
+      <c r="E292" s="0">
+        <v>1</v>
+      </c>
+      <c r="F292" s="0">
+        <v>0.4479486000000179</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>1</v>
+      </c>
+      <c r="B293" s="0">
+        <v>15</v>
+      </c>
+      <c r="C293" s="0">
+        <v>189.80434510000001</v>
+      </c>
+      <c r="D293" s="0">
+        <v>79</v>
+      </c>
+      <c r="E293" s="0">
+        <v>0</v>
+      </c>
+      <c r="F293" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>1</v>
+      </c>
+      <c r="B294" s="0">
+        <v>15</v>
+      </c>
+      <c r="C294" s="0">
+        <v>190.02592200000001</v>
+      </c>
+      <c r="D294" s="0">
+        <v>77</v>
+      </c>
+      <c r="E294" s="0">
+        <v>1</v>
+      </c>
+      <c r="F294" s="0">
+        <v>0.2215769000000023</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>1</v>
+      </c>
+      <c r="B295" s="0">
+        <v>15</v>
+      </c>
+      <c r="C295" s="0">
+        <v>190.13537819999999</v>
+      </c>
+      <c r="D295" s="0">
+        <v>77</v>
+      </c>
+      <c r="E295" s="0">
+        <v>0</v>
+      </c>
+      <c r="F295" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>1</v>
+      </c>
+      <c r="B296" s="0">
+        <v>15</v>
+      </c>
+      <c r="C296" s="0">
+        <v>190.39708659999999</v>
+      </c>
+      <c r="D296" s="0">
+        <v>76</v>
+      </c>
+      <c r="E296" s="0">
+        <v>1</v>
+      </c>
+      <c r="F296" s="0">
+        <v>0.26170840000000339</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>1</v>
+      </c>
+      <c r="B297" s="0">
+        <v>15</v>
+      </c>
+      <c r="C297" s="0">
+        <v>190.49151839999999</v>
+      </c>
+      <c r="D297" s="0">
+        <v>76</v>
+      </c>
+      <c r="E297" s="0">
+        <v>0</v>
+      </c>
+      <c r="F297" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>1</v>
+      </c>
+      <c r="B298" s="0">
+        <v>15</v>
+      </c>
+      <c r="C298" s="0">
+        <v>190.70002199999999</v>
+      </c>
+      <c r="D298" s="0">
+        <v>74</v>
+      </c>
+      <c r="E298" s="0">
+        <v>1</v>
+      </c>
+      <c r="F298" s="0">
+        <v>0.20850360000000023</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>1</v>
+      </c>
+      <c r="B299" s="0">
+        <v>15</v>
+      </c>
+      <c r="C299" s="0">
+        <v>190.8255193</v>
+      </c>
+      <c r="D299" s="0">
+        <v>74</v>
+      </c>
+      <c r="E299" s="0">
+        <v>0</v>
+      </c>
+      <c r="F299" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>1</v>
+      </c>
+      <c r="B300" s="0">
+        <v>15</v>
+      </c>
+      <c r="C300" s="0">
+        <v>191.06263039999999</v>
+      </c>
+      <c r="D300" s="0">
+        <v>72</v>
+      </c>
+      <c r="E300" s="0">
+        <v>1</v>
+      </c>
+      <c r="F300" s="0">
+        <v>0.2371110999999928</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0">
+        <v>1</v>
+      </c>
+      <c r="B301" s="0">
+        <v>15</v>
+      </c>
+      <c r="C301" s="0">
+        <v>191.20559359999999</v>
+      </c>
+      <c r="D301" s="0">
+        <v>72</v>
+      </c>
+      <c r="E301" s="0">
+        <v>0</v>
+      </c>
+      <c r="F301" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0">
+        <v>1</v>
+      </c>
+      <c r="B302" s="0">
+        <v>16</v>
+      </c>
+      <c r="C302" s="0">
+        <v>201.0296481</v>
+      </c>
+      <c r="D302" s="0">
+        <v>79</v>
+      </c>
+      <c r="E302" s="0">
+        <v>1</v>
+      </c>
+      <c r="F302" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0">
+        <v>1</v>
+      </c>
+      <c r="B303" s="0">
+        <v>16</v>
+      </c>
+      <c r="C303" s="0">
+        <v>201.20525330000001</v>
+      </c>
+      <c r="D303" s="0">
+        <v>79</v>
+      </c>
+      <c r="E303" s="0">
+        <v>0</v>
+      </c>
+      <c r="F303" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0">
+        <v>1</v>
+      </c>
+      <c r="B304" s="0">
+        <v>16</v>
+      </c>
+      <c r="C304" s="0">
+        <v>201.62424859999999</v>
+      </c>
+      <c r="D304" s="0">
+        <v>77</v>
+      </c>
+      <c r="E304" s="0">
+        <v>1</v>
+      </c>
+      <c r="F304" s="0">
+        <v>0.41899529999997753</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0">
+        <v>1</v>
+      </c>
+      <c r="B305" s="0">
+        <v>16</v>
+      </c>
+      <c r="C305" s="0">
+        <v>201.76916199999999</v>
+      </c>
+      <c r="D305" s="0">
+        <v>77</v>
+      </c>
+      <c r="E305" s="0">
+        <v>0</v>
+      </c>
+      <c r="F305" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0">
+        <v>1</v>
+      </c>
+      <c r="B306" s="0">
+        <v>16</v>
+      </c>
+      <c r="C306" s="0">
+        <v>202.05760069999999</v>
+      </c>
+      <c r="D306" s="0">
+        <v>76</v>
+      </c>
+      <c r="E306" s="0">
+        <v>1</v>
+      </c>
+      <c r="F306" s="0">
+        <v>0.28843870000000038</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0">
+        <v>1</v>
+      </c>
+      <c r="B307" s="0">
+        <v>16</v>
+      </c>
+      <c r="C307" s="0">
+        <v>202.16425390000001</v>
+      </c>
+      <c r="D307" s="0">
+        <v>76</v>
+      </c>
+      <c r="E307" s="0">
+        <v>0</v>
+      </c>
+      <c r="F307" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0">
+        <v>1</v>
+      </c>
+      <c r="B308" s="0">
+        <v>16</v>
+      </c>
+      <c r="C308" s="0">
+        <v>202.4223958</v>
+      </c>
+      <c r="D308" s="0">
+        <v>74</v>
+      </c>
+      <c r="E308" s="0">
+        <v>1</v>
+      </c>
+      <c r="F308" s="0">
+        <v>0.25814189999999826</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0">
+        <v>1</v>
+      </c>
+      <c r="B309" s="0">
+        <v>16</v>
+      </c>
+      <c r="C309" s="0">
+        <v>202.5646338</v>
+      </c>
+      <c r="D309" s="0">
+        <v>74</v>
+      </c>
+      <c r="E309" s="0">
+        <v>0</v>
+      </c>
+      <c r="F309" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0">
+        <v>1</v>
+      </c>
+      <c r="B310" s="0">
+        <v>16</v>
+      </c>
+      <c r="C310" s="0">
+        <v>202.80327980000001</v>
+      </c>
+      <c r="D310" s="0">
+        <v>72</v>
+      </c>
+      <c r="E310" s="0">
+        <v>1</v>
+      </c>
+      <c r="F310" s="0">
+        <v>0.23864600000001701</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0">
+        <v>1</v>
+      </c>
+      <c r="B311" s="0">
+        <v>16</v>
+      </c>
+      <c r="C311" s="0">
+        <v>202.99526499999999</v>
+      </c>
+      <c r="D311" s="0">
+        <v>72</v>
+      </c>
+      <c r="E311" s="0">
+        <v>0</v>
+      </c>
+      <c r="F311" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0">
+        <v>1</v>
+      </c>
+      <c r="B312" s="0">
+        <v>16</v>
+      </c>
+      <c r="C312" s="0">
+        <v>203.4743374</v>
+      </c>
+      <c r="D312" s="0">
+        <v>79</v>
+      </c>
+      <c r="E312" s="0">
+        <v>1</v>
+      </c>
+      <c r="F312" s="0">
+        <v>0.47907240000000684</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0">
+        <v>1</v>
+      </c>
+      <c r="B313" s="0">
+        <v>16</v>
+      </c>
+      <c r="C313" s="0">
+        <v>203.61701070000001</v>
+      </c>
+      <c r="D313" s="0">
+        <v>79</v>
+      </c>
+      <c r="E313" s="0">
+        <v>0</v>
+      </c>
+      <c r="F313" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0">
+        <v>1</v>
+      </c>
+      <c r="B314" s="0">
+        <v>16</v>
+      </c>
+      <c r="C314" s="0">
+        <v>203.8840778</v>
+      </c>
+      <c r="D314" s="0">
+        <v>77</v>
+      </c>
+      <c r="E314" s="0">
+        <v>1</v>
+      </c>
+      <c r="F314" s="0">
+        <v>0.26706709999999134</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0">
+        <v>1</v>
+      </c>
+      <c r="B315" s="0">
+        <v>16</v>
+      </c>
+      <c r="C315" s="0">
+        <v>204.04359149999999</v>
+      </c>
+      <c r="D315" s="0">
+        <v>77</v>
+      </c>
+      <c r="E315" s="0">
+        <v>0</v>
+      </c>
+      <c r="F315" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0">
+        <v>1</v>
+      </c>
+      <c r="B316" s="0">
+        <v>16</v>
+      </c>
+      <c r="C316" s="0">
+        <v>204.30566010000001</v>
+      </c>
+      <c r="D316" s="0">
+        <v>76</v>
+      </c>
+      <c r="E316" s="0">
+        <v>1</v>
+      </c>
+      <c r="F316" s="0">
+        <v>0.26206860000002052</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0">
+        <v>1</v>
+      </c>
+      <c r="B317" s="0">
+        <v>16</v>
+      </c>
+      <c r="C317" s="0">
+        <v>204.4155159</v>
+      </c>
+      <c r="D317" s="0">
+        <v>76</v>
+      </c>
+      <c r="E317" s="0">
+        <v>0</v>
+      </c>
+      <c r="F317" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0">
+        <v>1</v>
+      </c>
+      <c r="B318" s="0">
+        <v>16</v>
+      </c>
+      <c r="C318" s="0">
+        <v>204.68445829999999</v>
+      </c>
+      <c r="D318" s="0">
+        <v>74</v>
+      </c>
+      <c r="E318" s="0">
+        <v>1</v>
+      </c>
+      <c r="F318" s="0">
+        <v>0.26894239999998604</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0">
+        <v>1</v>
+      </c>
+      <c r="B319" s="0">
+        <v>16</v>
+      </c>
+      <c r="C319" s="0">
+        <v>204.7983227</v>
+      </c>
+      <c r="D319" s="0">
+        <v>74</v>
+      </c>
+      <c r="E319" s="0">
+        <v>0</v>
+      </c>
+      <c r="F319" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0">
+        <v>1</v>
+      </c>
+      <c r="B320" s="0">
+        <v>16</v>
+      </c>
+      <c r="C320" s="0">
+        <v>205.1033922</v>
+      </c>
+      <c r="D320" s="0">
+        <v>72</v>
+      </c>
+      <c r="E320" s="0">
+        <v>1</v>
+      </c>
+      <c r="F320" s="0">
+        <v>0.30506950000000188</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0">
+        <v>1</v>
+      </c>
+      <c r="B321" s="0">
+        <v>16</v>
+      </c>
+      <c r="C321" s="0">
+        <v>205.21098319999999</v>
+      </c>
+      <c r="D321" s="0">
+        <v>72</v>
+      </c>
+      <c r="E321" s="0">
+        <v>0</v>
+      </c>
+      <c r="F321" s="0">
         <v>0</v>
       </c>
     </row>

--- a/output_data/1_midi.xlsx
+++ b/output_data/1_midi.xlsx
@@ -35,7 +35,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>time_stamp</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>is_on</t>
+  </si>
+  <si>
+    <t>ipi</t>
+  </si>
   <si>
     <t>run_num</t>
   </si>
@@ -148,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -160,16 +178,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,27 +515,27 @@
     <col min="3" max="3" width="11.7109375" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="5.28515625" bestFit="true" customWidth="true"/>
     <col min="5" max="5" width="5.85546875" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="9.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="3.42578125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
@@ -526,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>5.9605983</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -546,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>6.1503592999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -566,16 +586,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>6.3933508000000003</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
         <v>1</v>
       </c>
       <c r="F4" s="0">
-        <v>0.24299150000000047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -586,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="0">
-        <v>6.5556728</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -606,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>6.7596654000000003</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
         <v>1</v>
       </c>
       <c r="F6" s="0">
-        <v>0.2039926000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -626,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="0">
-        <v>6.8743024000000004</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -646,16 +666,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>7.1158207000000004</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
         <v>1</v>
       </c>
       <c r="F8" s="0">
-        <v>0.24151830000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
@@ -666,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0">
-        <v>7.2578987000000001</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -686,16 +706,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="0">
-        <v>7.5102915000000001</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
         <v>1</v>
       </c>
       <c r="F10" s="0">
-        <v>0.25239279999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -706,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="0">
-        <v>7.6880747999999999</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -726,16 +746,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="0">
-        <v>8.1614450999999999</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
         <v>1</v>
       </c>
       <c r="F12" s="0">
-        <v>0.47337030000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -746,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="0">
-        <v>8.3360269999999996</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -766,16 +786,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="0">
-        <v>8.6461401999999996</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0">
         <v>1</v>
       </c>
       <c r="F14" s="0">
-        <v>0.31011319999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
@@ -786,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="0">
-        <v>8.7866505000000004</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -806,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="0">
-        <v>9.0720082000000009</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0">
         <v>1</v>
       </c>
       <c r="F16" s="0">
-        <v>0.28535770000000049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
@@ -826,10 +846,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="0">
-        <v>9.1875152999999994</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -846,16 +866,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="0">
-        <v>9.4774162999999998</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0">
         <v>1</v>
       </c>
       <c r="F18" s="0">
-        <v>0.28990100000000041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -866,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0">
-        <v>9.6036806000000006</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -886,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="0">
-        <v>10.125648</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0">
         <v>1</v>
       </c>
       <c r="F20" s="0">
-        <v>0.52196739999999942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
@@ -906,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="0">
-        <v>10.3381793</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -926,10 +946,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="0">
-        <v>19.075984999999999</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0">
         <v>1</v>
@@ -946,10 +966,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="0">
-        <v>19.2716928</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0">
         <v>0</v>
@@ -966,16 +986,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="0">
-        <v>19.604393999999999</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0">
         <v>1</v>
       </c>
       <c r="F24" s="0">
-        <v>0.33270119999999892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
@@ -986,10 +1006,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="0">
-        <v>19.781574200000001</v>
+        <v>0</v>
       </c>
       <c r="D25" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E25" s="0">
         <v>0</v>
@@ -1006,16 +1026,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="0">
-        <v>20.084016999999999</v>
+        <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0">
         <v>1</v>
       </c>
       <c r="F26" s="0">
-        <v>0.3024427999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
@@ -1026,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="0">
-        <v>20.2238832</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -1046,16 +1066,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="0">
-        <v>20.482978599999999</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0">
         <v>1</v>
       </c>
       <c r="F28" s="0">
-        <v>0.25909539999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
@@ -1066,10 +1086,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="0">
-        <v>20.6556487</v>
+        <v>0</v>
       </c>
       <c r="D29" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -1086,16 +1106,16 @@
         <v>2</v>
       </c>
       <c r="C30" s="0">
-        <v>20.976483300000002</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0">
         <v>1</v>
       </c>
       <c r="F30" s="0">
-        <v>0.3208346000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
@@ -1106,10 +1126,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="0">
-        <v>21.168267199999999</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -1126,16 +1146,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="0">
-        <v>21.919178800000001</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E32" s="0">
         <v>1</v>
       </c>
       <c r="F32" s="0">
-        <v>0.75091160000000201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
@@ -1146,10 +1166,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="0">
-        <v>22.110102300000001</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -1166,16 +1186,16 @@
         <v>2</v>
       </c>
       <c r="C34" s="0">
-        <v>22.450705899999999</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0">
         <v>1</v>
       </c>
       <c r="F34" s="0">
-        <v>0.3406035999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
@@ -1186,10 +1206,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="0">
-        <v>22.608506899999998</v>
+        <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -1206,16 +1226,16 @@
         <v>2</v>
       </c>
       <c r="C36" s="0">
-        <v>22.914184800000001</v>
+        <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0">
         <v>1</v>
       </c>
       <c r="F36" s="0">
-        <v>0.30567790000000272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
@@ -1226,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="0">
-        <v>23.034588500000002</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -1246,16 +1266,16 @@
         <v>2</v>
       </c>
       <c r="C38" s="0">
-        <v>23.358169</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0">
         <v>1</v>
       </c>
       <c r="F38" s="0">
-        <v>0.32358049999999849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
@@ -1266,10 +1286,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="0">
-        <v>23.501182100000001</v>
+        <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -1286,16 +1306,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="0">
-        <v>23.993668100000001</v>
+        <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0">
         <v>1</v>
       </c>
       <c r="F40" s="0">
-        <v>0.49248599999999954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
@@ -1306,10 +1326,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="0">
-        <v>24.139388700000001</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
@@ -1326,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="0">
-        <v>33.454108599999998</v>
+        <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0">
         <v>1</v>
@@ -1346,10 +1366,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="0">
-        <v>33.645501099999997</v>
+        <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
@@ -1366,16 +1386,16 @@
         <v>3</v>
       </c>
       <c r="C44" s="0">
-        <v>34.012155399999997</v>
+        <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0">
         <v>1</v>
       </c>
       <c r="F44" s="0">
-        <v>0.36665430000000043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
@@ -1386,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="0">
-        <v>34.164815300000001</v>
+        <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -1406,16 +1426,16 @@
         <v>3</v>
       </c>
       <c r="C46" s="0">
-        <v>34.468815300000003</v>
+        <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0">
         <v>1</v>
       </c>
       <c r="F46" s="0">
-        <v>0.30400000000000205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
@@ -1426,10 +1446,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="0">
-        <v>34.578315699999997</v>
+        <v>0</v>
       </c>
       <c r="D47" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E47" s="0">
         <v>0</v>
@@ -1446,16 +1466,16 @@
         <v>3</v>
       </c>
       <c r="C48" s="0">
-        <v>34.871299499999999</v>
+        <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0">
         <v>1</v>
       </c>
       <c r="F48" s="0">
-        <v>0.29298380000000179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
@@ -1466,10 +1486,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="0">
-        <v>35.029655300000002</v>
+        <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -1486,16 +1506,16 @@
         <v>3</v>
       </c>
       <c r="C50" s="0">
-        <v>35.366292799999997</v>
+        <v>0</v>
       </c>
       <c r="D50" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0">
         <v>1</v>
       </c>
       <c r="F50" s="0">
-        <v>0.33663749999999482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
@@ -1506,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="0">
-        <v>35.509019500000001</v>
+        <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -1526,16 +1546,16 @@
         <v>3</v>
       </c>
       <c r="C52" s="0">
-        <v>36.129361699999997</v>
+        <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0">
         <v>1</v>
       </c>
       <c r="F52" s="0">
-        <v>0.62034219999999607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
@@ -1546,10 +1566,10 @@
         <v>3</v>
       </c>
       <c r="C53" s="0">
-        <v>36.3220685</v>
+        <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -1566,16 +1586,16 @@
         <v>3</v>
       </c>
       <c r="C54" s="0">
-        <v>36.659833499999998</v>
+        <v>0</v>
       </c>
       <c r="D54" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E54" s="0">
         <v>1</v>
       </c>
       <c r="F54" s="0">
-        <v>0.33776499999999743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
@@ -1586,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="0">
-        <v>36.813481799999998</v>
+        <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -1606,16 +1626,16 @@
         <v>3</v>
       </c>
       <c r="C56" s="0">
-        <v>37.138859199999999</v>
+        <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E56" s="0">
         <v>1</v>
       </c>
       <c r="F56" s="0">
-        <v>0.3253774000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
@@ -1626,10 +1646,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="0">
-        <v>37.265362699999997</v>
+        <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -1646,16 +1666,16 @@
         <v>3</v>
       </c>
       <c r="C58" s="0">
-        <v>37.553854700000002</v>
+        <v>0</v>
       </c>
       <c r="D58" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0">
         <v>1</v>
       </c>
       <c r="F58" s="0">
-        <v>0.28849200000000508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
@@ -1666,10 +1686,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="0">
-        <v>37.711134000000001</v>
+        <v>0</v>
       </c>
       <c r="D59" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E59" s="0">
         <v>0</v>
@@ -1686,16 +1706,16 @@
         <v>3</v>
       </c>
       <c r="C60" s="0">
-        <v>38.012766399999997</v>
+        <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E60" s="0">
         <v>1</v>
       </c>
       <c r="F60" s="0">
-        <v>0.30163239999999547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
@@ -1706,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="C61" s="0">
-        <v>38.174608800000001</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -1726,10 +1746,10 @@
         <v>4</v>
       </c>
       <c r="C62" s="0">
-        <v>45.266725299999997</v>
+        <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0">
         <v>1</v>
@@ -1746,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="C63" s="0">
-        <v>45.437975600000001</v>
+        <v>0</v>
       </c>
       <c r="D63" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
@@ -1766,16 +1786,16 @@
         <v>4</v>
       </c>
       <c r="C64" s="0">
-        <v>45.760501400000003</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0">
         <v>1</v>
       </c>
       <c r="F64" s="0">
-        <v>0.32252580000000108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
@@ -1786,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="C65" s="0">
-        <v>45.886486099999999</v>
+        <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -1806,16 +1826,16 @@
         <v>4</v>
       </c>
       <c r="C66" s="0">
-        <v>46.238851500000003</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0">
         <v>1</v>
       </c>
       <c r="F66" s="0">
-        <v>0.3523654000000036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25">
@@ -1826,10 +1846,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="0">
-        <v>46.3510141</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
@@ -1846,16 +1866,16 @@
         <v>4</v>
       </c>
       <c r="C68" s="0">
-        <v>46.653198799999998</v>
+        <v>0</v>
       </c>
       <c r="D68" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E68" s="0">
         <v>1</v>
       </c>
       <c r="F68" s="0">
-        <v>0.30218469999999797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
@@ -1866,10 +1886,10 @@
         <v>4</v>
       </c>
       <c r="C69" s="0">
-        <v>46.810675400000001</v>
+        <v>0</v>
       </c>
       <c r="D69" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E69" s="0">
         <v>0</v>
@@ -1886,16 +1906,16 @@
         <v>4</v>
       </c>
       <c r="C70" s="0">
-        <v>47.118570800000001</v>
+        <v>0</v>
       </c>
       <c r="D70" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E70" s="0">
         <v>1</v>
       </c>
       <c r="F70" s="0">
-        <v>0.3078953999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
@@ -1906,10 +1926,10 @@
         <v>4</v>
       </c>
       <c r="C71" s="0">
-        <v>47.272388100000001</v>
+        <v>0</v>
       </c>
       <c r="D71" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E71" s="0">
         <v>0</v>
@@ -1926,16 +1946,16 @@
         <v>4</v>
       </c>
       <c r="C72" s="0">
-        <v>48.296653900000003</v>
+        <v>0</v>
       </c>
       <c r="D72" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E72" s="0">
         <v>1</v>
       </c>
       <c r="F72" s="0">
-        <v>1.024265800000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
@@ -1946,10 +1966,10 @@
         <v>4</v>
       </c>
       <c r="C73" s="0">
-        <v>48.476193799999997</v>
+        <v>0</v>
       </c>
       <c r="D73" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E73" s="0">
         <v>0</v>
@@ -1966,16 +1986,16 @@
         <v>4</v>
       </c>
       <c r="C74" s="0">
-        <v>48.854145000000003</v>
+        <v>0</v>
       </c>
       <c r="D74" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E74" s="0">
         <v>1</v>
       </c>
       <c r="F74" s="0">
-        <v>0.37795120000000537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
@@ -1986,10 +2006,10 @@
         <v>4</v>
       </c>
       <c r="C75" s="0">
-        <v>48.985919899999999</v>
+        <v>0</v>
       </c>
       <c r="D75" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E75" s="0">
         <v>0</v>
@@ -2006,16 +2026,16 @@
         <v>4</v>
       </c>
       <c r="C76" s="0">
-        <v>49.290405200000002</v>
+        <v>0</v>
       </c>
       <c r="D76" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E76" s="0">
         <v>1</v>
       </c>
       <c r="F76" s="0">
-        <v>0.30448530000000318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25">
@@ -2026,10 +2046,10 @@
         <v>4</v>
       </c>
       <c r="C77" s="0">
-        <v>49.397519899999999</v>
+        <v>0</v>
       </c>
       <c r="D77" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E77" s="0">
         <v>0</v>
@@ -2046,16 +2066,16 @@
         <v>4</v>
       </c>
       <c r="C78" s="0">
-        <v>49.684635399999998</v>
+        <v>0</v>
       </c>
       <c r="D78" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E78" s="0">
         <v>1</v>
       </c>
       <c r="F78" s="0">
-        <v>0.28711549999999875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
@@ -2066,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="C79" s="0">
-        <v>49.828368500000003</v>
+        <v>0</v>
       </c>
       <c r="D79" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E79" s="0">
         <v>0</v>
@@ -2086,16 +2106,16 @@
         <v>4</v>
       </c>
       <c r="C80" s="0">
-        <v>50.326122900000001</v>
+        <v>0</v>
       </c>
       <c r="D80" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E80" s="0">
         <v>1</v>
       </c>
       <c r="F80" s="0">
-        <v>0.49775439999999804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" x14ac:dyDescent="0.25">
@@ -2106,10 +2126,10 @@
         <v>4</v>
       </c>
       <c r="C81" s="0">
-        <v>50.488297199999998</v>
+        <v>0</v>
       </c>
       <c r="D81" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E81" s="0">
         <v>0</v>

--- a/output_data/1_midi.xlsx
+++ b/output_data/1_midi.xlsx
@@ -35,7 +35,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>time_stamp</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>is_on</t>
+  </si>
+  <si>
+    <t>ipi</t>
+  </si>
   <si>
     <t>run_num</t>
   </si>
@@ -166,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -179,17 +197,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,27 +535,27 @@
     <col min="3" max="3" width="11.7109375" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="5.28515625" bestFit="true" customWidth="true"/>
     <col min="5" max="5" width="5.85546875" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="3.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="11.42578125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
@@ -546,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>17.887934399999999</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -946,10 +966,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>33.923539900000002</v>
       </c>
       <c r="D22" s="0">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E22" s="0">
         <v>1</v>
@@ -966,10 +986,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
+        <v>34.0822328</v>
       </c>
       <c r="D23" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E23" s="0">
         <v>0</v>
@@ -995,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="0">
-        <v>0</v>
+        <v>-34.0822328</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
@@ -1006,10 +1026,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>34.128133400000003</v>
       </c>
       <c r="D25" s="0">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E25" s="0">
         <v>0</v>
@@ -1026,16 +1046,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>34.365683500000003</v>
       </c>
       <c r="D26" s="0">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E26" s="0">
         <v>1</v>
       </c>
       <c r="F26" s="0">
-        <v>0</v>
+        <v>0.23755009999999999</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
@@ -1046,10 +1066,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="0">
-        <v>0</v>
+        <v>34.809911</v>
       </c>
       <c r="D27" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -1075,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="0">
-        <v>0</v>
+        <v>-34.809911</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
@@ -1086,10 +1106,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="0">
-        <v>0</v>
+        <v>34.810200100000003</v>
       </c>
       <c r="D29" s="0">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -1115,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="0">
-        <v>0</v>
+        <v>-34.810200100000003</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
@@ -1126,10 +1146,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
+        <v>34.8104114</v>
       </c>
       <c r="D31" s="0">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -1155,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="0">
-        <v>0</v>
+        <v>-34.8104114</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
@@ -1166,10 +1186,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="0">
-        <v>0</v>
+        <v>34.8106163</v>
       </c>
       <c r="D33" s="0">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -1186,16 +1206,16 @@
         <v>2</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>34.999529799999998</v>
       </c>
       <c r="D34" s="0">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E34" s="0">
         <v>1</v>
       </c>
       <c r="F34" s="0">
-        <v>0</v>
+        <v>0.18891349999999818</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
@@ -1206,10 +1226,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="0">
-        <v>0</v>
+        <v>35.489909400000002</v>
       </c>
       <c r="D35" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -1235,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="0">
-        <v>0</v>
+        <v>-35.489909400000002</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
@@ -1246,10 +1266,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="0">
-        <v>0</v>
+        <v>35.505957799999997</v>
       </c>
       <c r="D37" s="0">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -1275,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="0">
-        <v>0</v>
+        <v>-35.505957799999997</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
@@ -1286,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="0">
-        <v>0</v>
+        <v>35.521378300000002</v>
       </c>
       <c r="D39" s="0">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -1306,16 +1326,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>35.601312299999996</v>
       </c>
       <c r="D40" s="0">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E40" s="0">
         <v>1</v>
       </c>
       <c r="F40" s="0">
-        <v>0</v>
+        <v>0.079933999999994398</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
@@ -1326,10 +1346,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="0">
-        <v>0</v>
+        <v>35.6945786</v>
       </c>
       <c r="D41" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
@@ -1346,10 +1366,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="0">
-        <v>0</v>
+        <v>48.861068000000003</v>
       </c>
       <c r="D42" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E42" s="0">
         <v>1</v>
@@ -1366,10 +1386,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="0">
-        <v>0</v>
+        <v>49.004508000000001</v>
       </c>
       <c r="D43" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
@@ -1386,16 +1406,16 @@
         <v>3</v>
       </c>
       <c r="C44" s="0">
-        <v>0</v>
+        <v>49.067690599999999</v>
       </c>
       <c r="D44" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E44" s="0">
         <v>1</v>
       </c>
       <c r="F44" s="0">
-        <v>0</v>
+        <v>0.063182599999997535</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
@@ -1406,10 +1426,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="0">
-        <v>0</v>
+        <v>49.179128900000002</v>
       </c>
       <c r="D45" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -1426,16 +1446,16 @@
         <v>3</v>
       </c>
       <c r="C46" s="0">
-        <v>0</v>
+        <v>49.274967799999999</v>
       </c>
       <c r="D46" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E46" s="0">
         <v>1</v>
       </c>
       <c r="F46" s="0">
-        <v>0</v>
+        <v>0.095838899999996841</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
@@ -1446,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="0">
-        <v>0</v>
+        <v>50.020642700000003</v>
       </c>
       <c r="D47" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E47" s="0">
         <v>0</v>
@@ -1466,16 +1486,16 @@
         <v>3</v>
       </c>
       <c r="C48" s="0">
-        <v>0</v>
+        <v>50.100847799999997</v>
       </c>
       <c r="D48" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E48" s="0">
         <v>1</v>
       </c>
       <c r="F48" s="0">
-        <v>0</v>
+        <v>0.080205099999993479</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
@@ -1486,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="0">
-        <v>0</v>
+        <v>50.1944807</v>
       </c>
       <c r="D49" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -1506,16 +1526,16 @@
         <v>3</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>50.2582685</v>
       </c>
       <c r="D50" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E50" s="0">
         <v>1</v>
       </c>
       <c r="F50" s="0">
-        <v>0</v>
+        <v>0.063787800000000061</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
@@ -1526,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="0">
-        <v>0</v>
+        <v>50.367200500000003</v>
       </c>
       <c r="D51" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -1546,16 +1566,16 @@
         <v>3</v>
       </c>
       <c r="C52" s="0">
-        <v>0</v>
+        <v>50.478961300000002</v>
       </c>
       <c r="D52" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E52" s="0">
         <v>1</v>
       </c>
       <c r="F52" s="0">
-        <v>0</v>
+        <v>0.11176079999999899</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
@@ -1566,10 +1586,10 @@
         <v>3</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>50.494787799999997</v>
       </c>
       <c r="D53" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -1586,16 +1606,16 @@
         <v>3</v>
       </c>
       <c r="C54" s="0">
-        <v>0</v>
+        <v>50.525695399999996</v>
       </c>
       <c r="D54" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E54" s="0">
         <v>1</v>
       </c>
       <c r="F54" s="0">
-        <v>0</v>
+        <v>0.030907599999999036</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
@@ -1606,10 +1626,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="0">
-        <v>0</v>
+        <v>50.589474199999998</v>
       </c>
       <c r="D55" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -1626,16 +1646,16 @@
         <v>3</v>
       </c>
       <c r="C56" s="0">
-        <v>0</v>
+        <v>50.701685599999998</v>
       </c>
       <c r="D56" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E56" s="0">
         <v>1</v>
       </c>
       <c r="F56" s="0">
-        <v>0</v>
+        <v>0.11221139999999963</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
@@ -1646,10 +1666,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="0">
-        <v>0</v>
+        <v>50.797375700000003</v>
       </c>
       <c r="D57" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -1666,16 +1686,16 @@
         <v>3</v>
       </c>
       <c r="C58" s="0">
-        <v>0</v>
+        <v>50.876548</v>
       </c>
       <c r="D58" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E58" s="0">
         <v>1</v>
       </c>
       <c r="F58" s="0">
-        <v>0</v>
+        <v>0.079172299999996198</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
@@ -1686,10 +1706,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="0">
-        <v>0</v>
+        <v>50.972836800000003</v>
       </c>
       <c r="D59" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E59" s="0">
         <v>0</v>
@@ -1706,16 +1726,16 @@
         <v>3</v>
       </c>
       <c r="C60" s="0">
-        <v>0</v>
+        <v>51.052322099999998</v>
       </c>
       <c r="D60" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E60" s="0">
         <v>1</v>
       </c>
       <c r="F60" s="0">
-        <v>0</v>
+        <v>0.079485299999994652</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
@@ -1726,10 +1746,10 @@
         <v>3</v>
       </c>
       <c r="C61" s="0">
-        <v>0</v>
+        <v>51.592700700000002</v>
       </c>
       <c r="D61" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>

--- a/output_data/1_midi.xlsx
+++ b/output_data/1_midi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\MSc-neuroscience\auditory-experiment-code\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67077F2E-7ECC-4A70-A070-52F09DD9E033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61988B8-DC85-4C8C-A010-033904181F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
